--- a/src/main/java/utility/paymentMethodByCountry.xlsx
+++ b/src/main/java/utility/paymentMethodByCountry.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="403">
   <si>
     <t>tab_gateway</t>
   </si>
@@ -986,9 +986,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>paymentMethod</t>
-  </si>
-  <si>
     <t>enable</t>
   </si>
   <si>
@@ -1005,6 +1002,234 @@
   </si>
   <si>
     <t>priority</t>
+  </si>
+  <si>
+    <t>gateway</t>
+  </si>
+  <si>
+    <t>mint</t>
+  </si>
+  <si>
+    <t>dollargeneral</t>
+  </si>
+  <si>
+    <t>subway</t>
+  </si>
+  <si>
+    <t>mobiamo</t>
+  </si>
+  <si>
+    <t>polipayments</t>
+  </si>
+  <si>
+    <t>sofortbanktransfer</t>
+  </si>
+  <si>
+    <t>mercadopago</t>
+  </si>
+  <si>
+    <t>pagseguro</t>
+  </si>
+  <si>
+    <t>boletobancario</t>
+  </si>
+  <si>
+    <t>btbrazil</t>
+  </si>
+  <si>
+    <t>safetypay</t>
+  </si>
+  <si>
+    <t>ccbrazil</t>
+  </si>
+  <si>
+    <t>ccbrazilhipercard</t>
+  </si>
+  <si>
+    <t>idealpayments</t>
+  </si>
+  <si>
+    <t>sepadirectdebit</t>
+  </si>
+  <si>
+    <t>webmoney</t>
+  </si>
+  <si>
+    <t>yamoney</t>
+  </si>
+  <si>
+    <t>qiwiwallet</t>
+  </si>
+  <si>
+    <t>neosurf</t>
+  </si>
+  <si>
+    <t>ticketsurf</t>
+  </si>
+  <si>
+    <t>onecard</t>
+  </si>
+  <si>
+    <t>cherrycredits</t>
+  </si>
+  <si>
+    <t>gudangvoucher</t>
+  </si>
+  <si>
+    <t>wavegame</t>
+  </si>
+  <si>
+    <t>mol</t>
+  </si>
+  <si>
+    <t>indomog</t>
+  </si>
+  <si>
+    <t>unipinwallet</t>
+  </si>
+  <si>
+    <t>alipay</t>
+  </si>
+  <si>
+    <t>giropay</t>
+  </si>
+  <si>
+    <t>bancontact</t>
+  </si>
+  <si>
+    <t>mycardcard</t>
+  </si>
+  <si>
+    <t>mycardwallet</t>
+  </si>
+  <si>
+    <t>unionpay</t>
+  </si>
+  <si>
+    <t>kbc</t>
+  </si>
+  <si>
+    <t>cbc</t>
+  </si>
+  <si>
+    <t>btlatvia</t>
+  </si>
+  <si>
+    <t>maxima</t>
+  </si>
+  <si>
+    <t>banktransferlatvia</t>
+  </si>
+  <si>
+    <t>redcompra</t>
+  </si>
+  <si>
+    <t>servipagchile</t>
+  </si>
+  <si>
+    <t>sencillito</t>
+  </si>
+  <si>
+    <t>btcolombia</t>
+  </si>
+  <si>
+    <t>baloto</t>
+  </si>
+  <si>
+    <t>gana</t>
+  </si>
+  <si>
+    <t>pse</t>
+  </si>
+  <si>
+    <t>efecty</t>
+  </si>
+  <si>
+    <t>davivienda</t>
+  </si>
+  <si>
+    <t>psecolombia</t>
+  </si>
+  <si>
+    <t>btestonia</t>
+  </si>
+  <si>
+    <t>banktransferestonia</t>
+  </si>
+  <si>
+    <t>btlithuania</t>
+  </si>
+  <si>
+    <t>paypost</t>
+  </si>
+  <si>
+    <t>perlas</t>
+  </si>
+  <si>
+    <t>narvesen</t>
+  </si>
+  <si>
+    <t>banktransferlithuania</t>
+  </si>
+  <si>
+    <t>webcash</t>
+  </si>
+  <si>
+    <t>btmalaysia</t>
+  </si>
+  <si>
+    <t>todito</t>
+  </si>
+  <si>
+    <t>banktransfermexico</t>
+  </si>
+  <si>
+    <t>btperu</t>
+  </si>
+  <si>
+    <t>btphilippines</t>
+  </si>
+  <si>
+    <t>przelewy24</t>
+  </si>
+  <si>
+    <t>dotpay</t>
+  </si>
+  <si>
+    <t>evroset</t>
+  </si>
+  <si>
+    <t>svyasnoi</t>
+  </si>
+  <si>
+    <t>redpagos</t>
+  </si>
+  <si>
+    <t>vtc</t>
+  </si>
+  <si>
+    <t>vtctelcocard</t>
+  </si>
+  <si>
+    <t>vcoincard</t>
+  </si>
+  <si>
+    <t>btczech</t>
+  </si>
+  <si>
+    <t>btslovakia</t>
+  </si>
+  <si>
+    <t>pinhall</t>
+  </si>
+  <si>
+    <t>fasterpay</t>
+  </si>
+  <si>
+    <t>p1_paymentMethod</t>
+  </si>
+  <si>
+    <t>t3_paymentMethod</t>
   </si>
 </sst>
 </file>
@@ -1040,13 +1265,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1054,6 +1280,33 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1126,6 +1379,40 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF43CEFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1417,7 +1704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A198" workbookViewId="0">
       <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
@@ -1430,7 +1717,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B1" t="s">
         <v>307</v>
@@ -1472,7 +1759,7 @@
         <v>319</v>
       </c>
       <c r="O1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
@@ -2215,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O18" t="str">
         <f t="shared" si="3"/>
@@ -11458,37 +11745,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:O234">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>COUNTIF($P$1:$AC$1,D2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11499,85 +11786,154 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>320</v>
       </c>
       <c r="B1" t="s">
-        <v>321</v>
+        <v>401</v>
       </c>
       <c r="C1" t="s">
         <v>307</v>
       </c>
       <c r="D1" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="E1" t="s">
         <v>325</v>
       </c>
       <c r="F1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f t="shared" ref="A2:A33" si="0">ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP($C2,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>United States</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>226</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP($C3,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>United States</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>90</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>226</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>ROW()-1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>90</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -11586,19 +11942,50 @@
       <c r="C4">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="D4" t="str">
+        <f>VLOOKUP($C4,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Australia</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>27</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -11607,19 +11994,50 @@
       <c r="C5">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" t="str">
+        <f>VLOOKUP($C5,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Austria</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>6</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -11628,8 +12046,9 @@
       <c r="C6">
         <v>30</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="D6" t="str">
+        <f>VLOOKUP($C6,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Brazil</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -11637,10 +12056,40 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -11649,8 +12098,9 @@
       <c r="C7">
         <v>144</v>
       </c>
-      <c r="D7">
-        <v>1</v>
+      <c r="D7" t="str">
+        <f>VLOOKUP($C7,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Netherlands</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -11658,10 +12108,40 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -11670,19 +12150,50 @@
       <c r="C8">
         <v>12</v>
       </c>
-      <c r="D8">
-        <v>1</v>
+      <c r="D8" t="str">
+        <f>VLOOKUP($C8,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Armenia</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>19</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -11691,19 +12202,50 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9">
-        <v>1</v>
+      <c r="D9" t="str">
+        <f>VLOOKUP($C9,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Canada</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>16</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -11712,19 +12254,50 @@
       <c r="C10">
         <v>12</v>
       </c>
-      <c r="D10">
-        <v>1</v>
+      <c r="D10" t="str">
+        <f>VLOOKUP($C10,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Armenia</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>14</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -11733,19 +12306,50 @@
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11">
-        <v>1</v>
+      <c r="D11" t="str">
+        <f>VLOOKUP($C11,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Algeria</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>13</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -11754,19 +12358,50 @@
       <c r="C12">
         <v>12</v>
       </c>
-      <c r="D12">
-        <v>1</v>
+      <c r="D12" t="str">
+        <f>VLOOKUP($C12,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Armenia</v>
       </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>12</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -11775,19 +12410,50 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>1</v>
+      <c r="D13" t="str">
+        <f>VLOOKUP($C13,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Canada</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>8</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -11796,19 +12462,50 @@
       <c r="C14">
         <v>30</v>
       </c>
-      <c r="D14">
-        <v>1</v>
+      <c r="D14" t="str">
+        <f>VLOOKUP($C14,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Brazil</v>
       </c>
       <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>8</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -11817,19 +12514,50 @@
       <c r="C15">
         <v>94</v>
       </c>
-      <c r="D15">
-        <v>1</v>
+      <c r="D15" t="str">
+        <f>VLOOKUP($C15,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Indonesia</v>
       </c>
       <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>4</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -11838,19 +12566,50 @@
       <c r="C16">
         <v>76</v>
       </c>
-      <c r="D16">
-        <v>1</v>
+      <c r="D16" t="str">
+        <f>VLOOKUP($C16,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Germany</v>
       </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>3</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -11859,19 +12618,50 @@
       <c r="C17">
         <v>90</v>
       </c>
-      <c r="D17">
-        <v>1</v>
+      <c r="D17" t="str">
+        <f>VLOOKUP($C17,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Hong Kong</v>
       </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>3</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -11880,19 +12670,50 @@
       <c r="C18">
         <v>90</v>
       </c>
-      <c r="D18">
-        <v>1</v>
+      <c r="D18" t="str">
+        <f>VLOOKUP($C18,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Hong Kong</v>
       </c>
       <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>3</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -11901,19 +12722,50 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19">
-        <v>1</v>
+      <c r="D19" t="str">
+        <f>VLOOKUP($C19,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>United States</v>
       </c>
       <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>2</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -11922,19 +12774,50 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20">
-        <v>1</v>
+      <c r="D20" t="str">
+        <f>VLOOKUP($C20,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>United States</v>
       </c>
       <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <v>2</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -11943,19 +12826,50 @@
       <c r="C21">
         <v>22</v>
       </c>
-      <c r="D21">
-        <v>1</v>
+      <c r="D21" t="str">
+        <f>VLOOKUP($C21,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Belgium</v>
       </c>
       <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>2</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -11964,19 +12878,50 @@
       <c r="C22">
         <v>44</v>
       </c>
-      <c r="D22">
-        <v>1</v>
+      <c r="D22" t="str">
+        <f>VLOOKUP($C22,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>China</v>
       </c>
       <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>2</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -11985,19 +12930,50 @@
       <c r="C23">
         <v>112</v>
       </c>
-      <c r="D23">
-        <v>1</v>
+      <c r="D23" t="str">
+        <f>VLOOKUP($C23,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Latvia</v>
       </c>
       <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
         <v>2</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -12006,19 +12982,50 @@
       <c r="C24">
         <v>14</v>
       </c>
-      <c r="D24">
-        <v>1</v>
+      <c r="D24" t="str">
+        <f>VLOOKUP($C24,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Australia</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -12027,19 +13034,50 @@
       <c r="C25">
         <v>22</v>
       </c>
-      <c r="D25">
-        <v>1</v>
+      <c r="D25" t="str">
+        <f>VLOOKUP($C25,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Belgium</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -12048,19 +13086,50 @@
       <c r="C26">
         <v>22</v>
       </c>
-      <c r="D26">
-        <v>1</v>
+      <c r="D26" t="str">
+        <f>VLOOKUP($C26,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Belgium</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -12069,19 +13138,50 @@
       <c r="C27">
         <v>30</v>
       </c>
-      <c r="D27">
-        <v>1</v>
+      <c r="D27" t="str">
+        <f>VLOOKUP($C27,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Brazil</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -12090,19 +13190,50 @@
       <c r="C28">
         <v>30</v>
       </c>
-      <c r="D28">
-        <v>1</v>
+      <c r="D28" t="str">
+        <f>VLOOKUP($C28,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Brazil</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -12111,19 +13242,50 @@
       <c r="C29">
         <v>30</v>
       </c>
-      <c r="D29">
-        <v>1</v>
+      <c r="D29" t="str">
+        <f>VLOOKUP($C29,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Brazil</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -12132,19 +13294,50 @@
       <c r="C30">
         <v>30</v>
       </c>
-      <c r="D30">
-        <v>1</v>
+      <c r="D30" t="str">
+        <f>VLOOKUP($C30,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Brazil</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -12153,19 +13346,50 @@
       <c r="C31">
         <v>30</v>
       </c>
-      <c r="D31">
-        <v>1</v>
+      <c r="D31" t="str">
+        <f>VLOOKUP($C31,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Brazil</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -12174,19 +13398,50 @@
       <c r="C32">
         <v>43</v>
       </c>
-      <c r="D32">
-        <v>1</v>
+      <c r="D32" t="str">
+        <f>VLOOKUP($C32,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Chile</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -12195,19 +13450,50 @@
       <c r="C33">
         <v>43</v>
       </c>
-      <c r="D33">
-        <v>1</v>
+      <c r="D33" t="str">
+        <f>VLOOKUP($C33,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Chile</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>ROW()-1</f>
+        <f t="shared" ref="A34:A65" si="1">ROW()-1</f>
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -12216,19 +13502,50 @@
       <c r="C34">
         <v>43</v>
       </c>
-      <c r="D34">
-        <v>1</v>
+      <c r="D34" t="str">
+        <f>VLOOKUP($C34,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Chile</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -12237,19 +13554,50 @@
       <c r="C35">
         <v>45</v>
       </c>
-      <c r="D35">
-        <v>1</v>
+      <c r="D35" t="str">
+        <f>VLOOKUP($C35,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Colombia</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -12258,19 +13606,50 @@
       <c r="C36">
         <v>45</v>
       </c>
-      <c r="D36">
-        <v>1</v>
+      <c r="D36" t="str">
+        <f>VLOOKUP($C36,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Colombia</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -12279,19 +13658,50 @@
       <c r="C37">
         <v>45</v>
       </c>
-      <c r="D37">
-        <v>1</v>
+      <c r="D37" t="str">
+        <f>VLOOKUP($C37,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Colombia</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -12300,19 +13710,50 @@
       <c r="C38">
         <v>45</v>
       </c>
-      <c r="D38">
-        <v>1</v>
+      <c r="D38" t="str">
+        <f>VLOOKUP($C38,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Colombia</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -12321,19 +13762,50 @@
       <c r="C39">
         <v>45</v>
       </c>
-      <c r="D39">
-        <v>1</v>
+      <c r="D39" t="str">
+        <f>VLOOKUP($C39,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Colombia</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -12342,19 +13814,50 @@
       <c r="C40">
         <v>45</v>
       </c>
-      <c r="D40">
-        <v>1</v>
+      <c r="D40" t="str">
+        <f>VLOOKUP($C40,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Colombia</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -12363,19 +13866,50 @@
       <c r="C41">
         <v>45</v>
       </c>
-      <c r="D41">
-        <v>1</v>
+      <c r="D41" t="str">
+        <f>VLOOKUP($C41,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Colombia</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -12384,19 +13918,50 @@
       <c r="C42">
         <v>64</v>
       </c>
-      <c r="D42">
-        <v>1</v>
+      <c r="D42" t="str">
+        <f>VLOOKUP($C42,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Estonia</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -12405,19 +13970,50 @@
       <c r="C43">
         <v>76</v>
       </c>
-      <c r="D43">
-        <v>1</v>
+      <c r="D43" t="str">
+        <f>VLOOKUP($C43,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Germany</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" t="s">
@@ -12426,19 +14022,50 @@
       <c r="C44">
         <v>94</v>
       </c>
-      <c r="D44">
-        <v>1</v>
+      <c r="D44" t="str">
+        <f>VLOOKUP($C44,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Indonesia</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -12447,19 +14074,50 @@
       <c r="C45">
         <v>94</v>
       </c>
-      <c r="D45">
-        <v>1</v>
+      <c r="D45" t="str">
+        <f>VLOOKUP($C45,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Indonesia</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" t="s">
@@ -12468,19 +14126,50 @@
       <c r="C46">
         <v>94</v>
       </c>
-      <c r="D46">
-        <v>1</v>
+      <c r="D46" t="str">
+        <f>VLOOKUP($C46,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Indonesia</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -12489,19 +14178,50 @@
       <c r="C47">
         <v>112</v>
       </c>
-      <c r="D47">
-        <v>1</v>
+      <c r="D47" t="str">
+        <f>VLOOKUP($C47,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Latvia</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" t="s">
@@ -12510,19 +14230,50 @@
       <c r="C48">
         <v>118</v>
       </c>
-      <c r="D48">
-        <v>1</v>
+      <c r="D48" t="str">
+        <f>VLOOKUP($C48,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Lithuania</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -12531,19 +14282,50 @@
       <c r="C49">
         <v>118</v>
       </c>
-      <c r="D49">
-        <v>1</v>
+      <c r="D49" t="str">
+        <f>VLOOKUP($C49,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Lithuania</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" t="s">
@@ -12552,19 +14334,50 @@
       <c r="C50">
         <v>118</v>
       </c>
-      <c r="D50">
-        <v>1</v>
+      <c r="D50" t="str">
+        <f>VLOOKUP($C50,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Lithuania</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" t="s">
@@ -12573,19 +14386,50 @@
       <c r="C51">
         <v>124</v>
       </c>
-      <c r="D51">
-        <v>1</v>
+      <c r="D51" t="str">
+        <f>VLOOKUP($C51,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Malaysia</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" t="s">
@@ -12594,19 +14438,50 @@
       <c r="C52">
         <v>132</v>
       </c>
-      <c r="D52">
-        <v>1</v>
+      <c r="D52" t="str">
+        <f>VLOOKUP($C52,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Mexico</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" t="s">
@@ -12615,19 +14490,50 @@
       <c r="C53">
         <v>132</v>
       </c>
-      <c r="D53">
-        <v>1</v>
+      <c r="D53" t="str">
+        <f>VLOOKUP($C53,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Mexico</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" t="s">
@@ -12636,19 +14542,50 @@
       <c r="C54">
         <v>161</v>
       </c>
-      <c r="D54">
-        <v>1</v>
+      <c r="D54" t="str">
+        <f>VLOOKUP($C54,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Peru</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55" t="s">
@@ -12657,19 +14594,50 @@
       <c r="C55">
         <v>162</v>
       </c>
-      <c r="D55">
-        <v>1</v>
+      <c r="D55" t="str">
+        <f>VLOOKUP($C55,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Philippines</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B56" t="s">
@@ -12678,19 +14646,50 @@
       <c r="C56">
         <v>164</v>
       </c>
-      <c r="D56">
-        <v>1</v>
+      <c r="D56" t="str">
+        <f>VLOOKUP($C56,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Poland</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B57" t="s">
@@ -12699,19 +14698,50 @@
       <c r="C57">
         <v>164</v>
       </c>
-      <c r="D57">
-        <v>1</v>
+      <c r="D57" t="str">
+        <f>VLOOKUP($C57,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Poland</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B58" t="s">
@@ -12720,19 +14750,50 @@
       <c r="C58">
         <v>170</v>
       </c>
-      <c r="D58">
-        <v>1</v>
+      <c r="D58" t="str">
+        <f>VLOOKUP($C58,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Russia</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59" t="s">
@@ -12741,19 +14802,50 @@
       <c r="C59">
         <v>170</v>
       </c>
-      <c r="D59">
-        <v>1</v>
+      <c r="D59" t="str">
+        <f>VLOOKUP($C59,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Russia</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60" t="s">
@@ -12762,19 +14854,50 @@
       <c r="C60">
         <v>216</v>
       </c>
-      <c r="D60">
-        <v>1</v>
+      <c r="D60" t="str">
+        <f>VLOOKUP($C60,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Uruguay</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B61" t="s">
@@ -12783,19 +14906,50 @@
       <c r="C61">
         <v>220</v>
       </c>
-      <c r="D61">
-        <v>1</v>
+      <c r="D61" t="str">
+        <f>VLOOKUP($C61,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Vietnam</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B62" t="s">
@@ -12804,19 +14958,50 @@
       <c r="C62">
         <v>220</v>
       </c>
-      <c r="D62">
-        <v>1</v>
+      <c r="D62" t="str">
+        <f>VLOOKUP($C62,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Vietnam</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B63" t="s">
@@ -12825,19 +15010,50 @@
       <c r="C63">
         <v>60</v>
       </c>
-      <c r="D63">
-        <v>0</v>
+      <c r="D63" t="str">
+        <f>VLOOKUP($C63,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Egypt</v>
       </c>
       <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
         <v>6</v>
       </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B64" t="s">
@@ -12846,19 +15062,50 @@
       <c r="C64">
         <v>44</v>
       </c>
-      <c r="D64">
-        <v>0</v>
+      <c r="D64" t="str">
+        <f>VLOOKUP($C64,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>China</v>
       </c>
       <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
         <v>3</v>
       </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B65" t="s">
@@ -12867,19 +15114,50 @@
       <c r="C65">
         <v>124</v>
       </c>
-      <c r="D65">
-        <v>0</v>
+      <c r="D65" t="str">
+        <f>VLOOKUP($C65,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Malaysia</v>
       </c>
       <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
         <v>2</v>
       </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="1"/>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f>ROW()-1</f>
+        <f t="shared" ref="A66:A75" si="2">ROW()-1</f>
         <v>65</v>
       </c>
       <c r="B66" t="s">
@@ -12888,19 +15166,50 @@
       <c r="C66">
         <v>54</v>
       </c>
-      <c r="D66">
-        <v>0</v>
+      <c r="D66" t="str">
+        <f>VLOOKUP($C66,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Czech Republic</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="1"/>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="B67" t="s">
@@ -12909,19 +15218,50 @@
       <c r="C67">
         <v>64</v>
       </c>
-      <c r="D67">
-        <v>0</v>
+      <c r="D67" t="str">
+        <f>VLOOKUP($C67,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Estonia</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B68" t="s">
@@ -12930,19 +15270,50 @@
       <c r="C68">
         <v>94</v>
       </c>
-      <c r="D68">
-        <v>0</v>
+      <c r="D68" t="str">
+        <f>VLOOKUP($C68,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Indonesia</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B69" t="s">
@@ -12951,19 +15322,50 @@
       <c r="C69">
         <v>112</v>
       </c>
-      <c r="D69">
-        <v>0</v>
+      <c r="D69" t="str">
+        <f>VLOOKUP($C69,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Latvia</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B70" t="s">
@@ -12972,19 +15374,50 @@
       <c r="C70">
         <v>118</v>
       </c>
-      <c r="D70">
-        <v>0</v>
+      <c r="D70" t="str">
+        <f>VLOOKUP($C70,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Lithuania</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B71" t="s">
@@ -12993,19 +15426,50 @@
       <c r="C71">
         <v>118</v>
       </c>
-      <c r="D71">
-        <v>0</v>
+      <c r="D71" t="str">
+        <f>VLOOKUP($C71,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Lithuania</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B72" t="s">
@@ -13014,19 +15478,50 @@
       <c r="C72">
         <v>181</v>
       </c>
-      <c r="D72">
-        <v>0</v>
+      <c r="D72" t="str">
+        <f>VLOOKUP($C72,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Slovakia</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B73" t="s">
@@ -13035,19 +15530,50 @@
       <c r="C73">
         <v>198</v>
       </c>
-      <c r="D73">
-        <v>0</v>
+      <c r="D73" t="str">
+        <f>VLOOKUP($C73,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Taiwan</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+      <c r="AF73" s="1"/>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B74" t="s">
@@ -13056,19 +15582,50 @@
       <c r="C74">
         <v>215</v>
       </c>
-      <c r="D74">
-        <v>0</v>
+      <c r="D74" t="str">
+        <f>VLOOKUP($C74,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>United Kingdom</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f>ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B75" t="s">
@@ -13077,30 +15634,99 @@
       <c r="C75">
         <v>220</v>
       </c>
-      <c r="D75">
-        <v>0</v>
+      <c r="D75" t="str">
+        <f>VLOOKUP($C75,Sheet1!$B$2:$C$234,2,FALSE)</f>
+        <v>Vietnam</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:F75">
+  <sortState ref="A2:G75">
+    <sortCondition descending="1" ref="G2:G75"/>
+    <sortCondition descending="1" ref="E2:E75"/>
     <sortCondition descending="1" ref="F2:F75"/>
-    <sortCondition descending="1" ref="D2:D75"/>
-    <sortCondition descending="1" ref="E2:E75"/>
     <sortCondition ref="C2:C75"/>
   </sortState>
-  <conditionalFormatting sqref="I3 L2:M50 L66:M73 B2:B75">
-    <cfRule type="expression" dxfId="2" priority="2">
+  <conditionalFormatting sqref="I3 L2:M5 L66:M66 B2:B75 L7:M22 L6 L24:M33 L23 L35:M37 M34 L39:M41 M38 L44:M45 M42 L43 L47:M50 M46 L68:M68 L67 L71:M73 M69 L70 X2:Y5 X66:Y66 X7:Y22 X6 X24:Y33 X23 X35:Y37 Y34 X39:Y41 Y38 X44:Y45 Y42 X43 X47:Y50 Y46 X68:Y68 X67 X71:Y73 Y69 X70">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>COUNTIF($P$3:$AC$3,B2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:N69 I21:N25 I3 J20:N20 J68:N68 J2 J17:J19 L2:N19 L66:N67 B2:B75">
-    <cfRule type="duplicateValues" dxfId="1" priority="21"/>
+  <conditionalFormatting sqref="I69:K69 I3 J20 J68:N68 J2 J17 L2:N5 L66:N66 B2:B75 L6 N6 L7:N20 I21:M21 I22 K22:N22 I23:L23 N23 I24:J25 L24:N25 L67 N67 M69:N69">
+    <cfRule type="duplicateValues" dxfId="4" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U3">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>COUNTIF($P$3:$AC$3,U3)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U69:W69 U3 V20 V68:Z68 V2 V17 X2:Z5 X66:Z66 X6 Z6 X7:Z20 U21:Y21 U22 W22:Z22 U23:X23 Z23 U24:V25 X24:Z25 X67 Z67 Y69:Z69">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/utility/paymentMethodByCountry.xlsx
+++ b/src/main/java/utility/paymentMethodByCountry.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18FD034-4A04-45C7-98F7-5FC5E995EE0A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFD87CF-2B93-41FE-BB59-9D651065126C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8415" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8415" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="paymentMethod" sheetId="2" r:id="rId2"/>
-    <sheet name="shortcode" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="shortcode" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="642">
   <si>
     <t>tab_gateway</t>
   </si>
@@ -1019,9 +1020,6 @@
     <t>dollargeneral</t>
   </si>
   <si>
-    <t>subway</t>
-  </si>
-  <si>
     <t>mobiamo</t>
   </si>
   <si>
@@ -1088,9 +1086,6 @@
     <t>mol</t>
   </si>
   <si>
-    <t>indomog</t>
-  </si>
-  <si>
     <t>unipinwallet</t>
   </si>
   <si>
@@ -1124,18 +1119,9 @@
     <t>maxima</t>
   </si>
   <si>
-    <t>banktransferlatvia</t>
-  </si>
-  <si>
     <t>redcompra</t>
   </si>
   <si>
-    <t>servipagchile</t>
-  </si>
-  <si>
-    <t>sencillito</t>
-  </si>
-  <si>
     <t>btcolombia</t>
   </si>
   <si>
@@ -1154,15 +1140,9 @@
     <t>davivienda</t>
   </si>
   <si>
-    <t>psecolombia</t>
-  </si>
-  <si>
     <t>btestonia</t>
   </si>
   <si>
-    <t>banktransferestonia</t>
-  </si>
-  <si>
     <t>btlithuania</t>
   </si>
   <si>
@@ -1175,9 +1155,6 @@
     <t>narvesen</t>
   </si>
   <si>
-    <t>banktransferlithuania</t>
-  </si>
-  <si>
     <t>webcash</t>
   </si>
   <si>
@@ -1212,21 +1189,6 @@
   </si>
   <si>
     <t>vtc</t>
-  </si>
-  <si>
-    <t>vtctelcocard</t>
-  </si>
-  <si>
-    <t>vcoincard</t>
-  </si>
-  <si>
-    <t>btczech</t>
-  </si>
-  <si>
-    <t>btslovakia</t>
-  </si>
-  <si>
-    <t>pinhall</t>
   </si>
   <si>
     <t>fasterpay</t>
@@ -2081,7 +2043,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2099,6 +2061,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2137,19 +2106,19 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFABAB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFABAB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12585,15 +12554,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB76"/>
+  <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -12606,13 +12576,13 @@
         <v>320</v>
       </c>
       <c r="B1" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C1" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="D1" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="E1" t="s">
         <v>307</v>
@@ -12630,19 +12600,19 @@
         <v>326</v>
       </c>
       <c r="J1" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:28">
       <c r="A2">
-        <f t="shared" ref="A2:A33" si="0">ROW()-1</f>
+        <f t="shared" ref="A2:A31" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -12667,7 +12637,10 @@
         <v>328</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="L2" s="1">
+        <f t="shared" ref="L2:L13" si="1">IF(C2=J2,0,1)</f>
+        <v>1</v>
+      </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -12719,7 +12692,10 @@
         <v>327</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -12746,7 +12722,7 @@
         <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -12768,10 +12744,13 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="L4" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -12798,7 +12777,7 @@
         <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -12820,10 +12799,13 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -12850,7 +12832,7 @@
         <v>165</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -12872,10 +12854,13 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -12902,7 +12887,7 @@
         <v>137</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D7" t="s">
         <v>60</v>
@@ -12924,10 +12909,13 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="L7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -12954,7 +12942,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -12976,10 +12964,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -13006,7 +12997,7 @@
         <v>83</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -13028,10 +13019,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -13058,7 +13052,7 @@
         <v>82</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -13080,10 +13074,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -13110,7 +13107,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -13132,10 +13129,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -13162,7 +13162,7 @@
         <v>127</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -13184,10 +13184,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="L12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -13214,7 +13217,7 @@
         <v>97</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -13236,10 +13239,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="L13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -13266,7 +13272,7 @@
         <v>172</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -13288,10 +13294,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="L14" s="1">
+        <f>IF(C14=J14,0,1)</f>
+        <v>0</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -13318,7 +13327,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D15" t="s">
         <v>43</v>
@@ -13340,10 +13349,13 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="L15" s="1">
+        <f t="shared" ref="L15:L62" si="2">IF(C15=J15,0,1)</f>
+        <v>0</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -13370,7 +13382,7 @@
         <v>226</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D16" t="s">
         <v>40</v>
@@ -13392,10 +13404,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="L16" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -13422,7 +13437,7 @@
         <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D17" t="s">
         <v>41</v>
@@ -13444,10 +13459,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="L17" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -13474,7 +13492,7 @@
         <v>86</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D18" t="s">
         <v>42</v>
@@ -13496,10 +13514,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="L18" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -13551,7 +13572,10 @@
         <v>329</v>
       </c>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="L19" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -13574,21 +13598,21 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C20" s="1" t="e">
-        <v>#N/A</v>
+      <c r="B20" s="1">
+        <v>215</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="D20" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F20" t="str">
         <f>VLOOKUP($E20,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>United States</v>
+        <v>Belgium</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -13600,10 +13624,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="L20" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -13627,20 +13654,20 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>215</v>
+        <v>141</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E21">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F21" t="str">
         <f>VLOOKUP($E21,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Belgium</v>
+        <v>China</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -13652,10 +13679,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="L21" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -13679,20 +13709,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>141</v>
+        <v>230</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E22">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="F22" t="str">
         <f>VLOOKUP($E22,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>China</v>
+        <v>Latvia</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -13704,10 +13734,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="L22" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -13731,35 +13764,38 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="E23">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="F23" t="str">
         <f>VLOOKUP($E23,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Latvia</v>
+        <v>Australia</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="L23" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -13783,20 +13819,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>218</v>
+        <v>103</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E24">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F24" t="str">
         <f>VLOOKUP($E24,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Australia</v>
+        <v>Belgium</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -13808,10 +13844,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="L24" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -13835,13 +13874,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>103</v>
+        <v>220</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>22</v>
@@ -13860,10 +13899,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="L25" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -13887,20 +13929,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>220</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F26" t="str">
         <f>VLOOKUP($E26,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Belgium</v>
+        <v>Brazil</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -13912,10 +13954,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="L26" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -13939,13 +13984,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>334</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>30</v>
@@ -13967,7 +14012,10 @@
         <v>334</v>
       </c>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="L27" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -13991,13 +14039,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>335</v>
+        <v>489</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>30</v>
@@ -14016,10 +14064,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="L28" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -14043,13 +14094,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>502</v>
+        <v>338</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E29">
         <v>30</v>
@@ -14068,10 +14119,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="L29" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -14095,13 +14149,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>339</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E30">
         <v>30</v>
@@ -14123,7 +14177,10 @@
         <v>339</v>
       </c>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="L30" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -14147,20 +14204,20 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E31">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F31" t="str">
         <f>VLOOKUP($E31,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Brazil</v>
+        <v>Chile</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -14172,10 +14229,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="L31" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -14195,24 +14255,24 @@
     </row>
     <row r="32" spans="1:28">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A32:A57" si="3">ROW()-1</f>
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E32">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F32" t="str">
         <f>VLOOKUP($E32,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Chile</v>
+        <v>Colombia</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -14224,10 +14284,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="L32" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -14247,24 +14310,24 @@
     </row>
     <row r="33" spans="1:28">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C33" s="1" t="e">
-        <v>#N/A</v>
+      <c r="B33" s="1">
+        <v>109</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E33">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F33" t="str">
         <f>VLOOKUP($E33,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Chile</v>
+        <v>Colombia</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -14276,10 +14339,13 @@
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="L33" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -14299,24 +14365,24 @@
     </row>
     <row r="34" spans="1:28">
       <c r="A34">
-        <f t="shared" ref="A34:A65" si="1">ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C34" s="1" t="e">
-        <v>#N/A</v>
+      <c r="B34" s="1">
+        <v>111</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E34">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F34" t="str">
         <f>VLOOKUP($E34,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Chile</v>
+        <v>Colombia</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -14328,10 +14394,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="L34" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -14351,17 +14420,17 @@
     </row>
     <row r="35" spans="1:28">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E35">
         <v>45</v>
@@ -14380,10 +14449,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
+      <c r="L35" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -14403,17 +14475,17 @@
     </row>
     <row r="36" spans="1:28">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E36">
         <v>45</v>
@@ -14432,10 +14504,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="L36" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -14455,17 +14530,17 @@
     </row>
     <row r="37" spans="1:28">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E37">
         <v>45</v>
@@ -14484,10 +14559,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
+      <c r="L37" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -14507,24 +14585,24 @@
     </row>
     <row r="38" spans="1:28">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>113</v>
+        <v>228</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E38">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F38" t="str">
         <f>VLOOKUP($E38,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Colombia</v>
+        <v>Estonia</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -14536,10 +14614,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
+      <c r="L38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -14559,24 +14640,24 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>238</v>
+        <v>98</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E39">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="F39" t="str">
         <f>VLOOKUP($E39,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Colombia</v>
+        <v>Germany</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -14588,10 +14669,13 @@
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
+      <c r="L39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -14611,24 +14695,24 @@
     </row>
     <row r="40" spans="1:28">
       <c r="A40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>239</v>
+        <v>34</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E40">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F40" t="str">
         <f>VLOOKUP($E40,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Colombia</v>
+        <v>Indonesia</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -14640,10 +14724,13 @@
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
+      <c r="L40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -14663,24 +14750,24 @@
     </row>
     <row r="41" spans="1:28">
       <c r="A41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C41" s="1" t="e">
-        <v>#N/A</v>
+      <c r="B41" s="1">
+        <v>38</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E41">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F41" t="str">
         <f>VLOOKUP($E41,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Colombia</v>
+        <v>Indonesia</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -14692,10 +14779,13 @@
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
+      <c r="L41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -14715,24 +14805,24 @@
     </row>
     <row r="42" spans="1:28">
       <c r="A42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D42" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E42">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="F42" t="str">
         <f>VLOOKUP($E42,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Estonia</v>
+        <v>Lithuania</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -14744,10 +14834,13 @@
         <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+      <c r="L42" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -14767,24 +14860,24 @@
     </row>
     <row r="43" spans="1:28">
       <c r="A43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>98</v>
+        <v>233</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E43">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="F43" t="str">
         <f>VLOOKUP($E43,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Germany</v>
+        <v>Lithuania</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -14796,10 +14889,13 @@
         <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
+      <c r="L43" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -14819,24 +14915,24 @@
     </row>
     <row r="44" spans="1:28">
       <c r="A44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E44">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="F44" t="str">
         <f>VLOOKUP($E44,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Indonesia</v>
+        <v>Lithuania</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -14848,10 +14944,13 @@
         <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
+      <c r="L44" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -14871,24 +14970,24 @@
     </row>
     <row r="45" spans="1:28">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E45">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="F45" t="str">
         <f>VLOOKUP($E45,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Indonesia</v>
+        <v>Malaysia</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -14900,10 +14999,13 @@
         <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
+      <c r="L45" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -14923,24 +15025,24 @@
     </row>
     <row r="46" spans="1:28">
       <c r="A46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C46" s="1" t="e">
-        <v>#N/A</v>
+      <c r="B46" s="1">
+        <v>26</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E46">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="F46" t="str">
         <f>VLOOKUP($E46,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Indonesia</v>
+        <v>Mexico</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -14952,10 +15054,13 @@
         <v>0</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
+      <c r="L46" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -14975,24 +15080,24 @@
     </row>
     <row r="47" spans="1:28">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C47" s="1" t="e">
-        <v>#N/A</v>
+      <c r="B47" s="1">
+        <v>188</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="D47" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E47">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F47" t="str">
         <f>VLOOKUP($E47,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Latvia</v>
+        <v>Mexico</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -15004,10 +15109,13 @@
         <v>0</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
+      <c r="L47" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -15027,24 +15135,24 @@
     </row>
     <row r="48" spans="1:28">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>379</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E48">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="F48" t="str">
         <f>VLOOKUP($E48,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Lithuania</v>
+        <v>Peru</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -15059,7 +15167,10 @@
         <v>379</v>
       </c>
       <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
+      <c r="L48" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -15079,24 +15190,24 @@
     </row>
     <row r="49" spans="1:28">
       <c r="A49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>233</v>
+        <v>55</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>380</v>
+        <v>472</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E49">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="F49" t="str">
         <f>VLOOKUP($E49,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Lithuania</v>
+        <v>Philippines</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -15111,7 +15222,10 @@
         <v>380</v>
       </c>
       <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
+      <c r="L49" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -15131,24 +15245,24 @@
     </row>
     <row r="50" spans="1:28">
       <c r="A50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>381</v>
       </c>
       <c r="D50" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E50">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="F50" t="str">
         <f>VLOOKUP($E50,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Lithuania</v>
+        <v>Poland</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -15163,7 +15277,10 @@
         <v>381</v>
       </c>
       <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
+      <c r="L50" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -15183,24 +15300,24 @@
     </row>
     <row r="51" spans="1:28">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D51" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E51">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="F51" t="str">
         <f>VLOOKUP($E51,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Malaysia</v>
+        <v>Poland</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -15212,10 +15329,13 @@
         <v>0</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
+      <c r="L51" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -15235,24 +15355,24 @@
     </row>
     <row r="52" spans="1:28">
       <c r="A52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>26</v>
+        <v>216</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D52" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E52">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="F52" t="str">
         <f>VLOOKUP($E52,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Mexico</v>
+        <v>Russia</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -15264,10 +15384,13 @@
         <v>0</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
+      <c r="L52" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -15287,24 +15410,24 @@
     </row>
     <row r="53" spans="1:28">
       <c r="A53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D53" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E53">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="F53" t="str">
         <f>VLOOKUP($E53,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Mexico</v>
+        <v>Russia</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -15316,10 +15439,13 @@
         <v>0</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
+      <c r="L53" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -15339,24 +15465,24 @@
     </row>
     <row r="54" spans="1:28">
       <c r="A54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E54">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="F54" t="str">
         <f>VLOOKUP($E54,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Peru</v>
+        <v>Uruguay</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -15368,10 +15494,13 @@
         <v>0</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
+      <c r="L54" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -15391,39 +15520,42 @@
     </row>
     <row r="55" spans="1:28">
       <c r="A55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>485</v>
+        <v>351</v>
       </c>
       <c r="D55" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E55">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="F55" t="str">
         <f>VLOOKUP($E55,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Philippines</v>
+        <v>Egypt</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
+      <c r="L55" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -15443,39 +15575,42 @@
     </row>
     <row r="56" spans="1:28">
       <c r="A56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E56">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="F56" t="str">
         <f>VLOOKUP($E56,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Poland</v>
+        <v>China</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
+      <c r="L56" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -15495,39 +15630,42 @@
     </row>
     <row r="57" spans="1:28">
       <c r="A57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>390</v>
+        <v>503</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E57">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="F57" t="str">
         <f>VLOOKUP($E57,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Poland</v>
+        <v>Malaysia</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
+      <c r="L57" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -15547,27 +15685,27 @@
     </row>
     <row r="58" spans="1:28">
       <c r="A58">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A58:A62" si="4">ROW()-1</f>
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E58">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="F58" t="str">
         <f>VLOOKUP($E58,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Russia</v>
+        <v>Indonesia</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -15576,10 +15714,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
+      <c r="L58" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -15599,27 +15740,27 @@
     </row>
     <row r="59" spans="1:28">
       <c r="A59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="D59" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E59">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="F59" t="str">
         <f>VLOOKUP($E59,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Russia</v>
+        <v>Latvia</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -15628,10 +15769,13 @@
         <v>0</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
+      <c r="L59" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -15651,27 +15795,27 @@
     </row>
     <row r="60" spans="1:28">
       <c r="A60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="D60" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E60">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="F60" t="str">
         <f>VLOOKUP($E60,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Uruguay</v>
+        <v>Lithuania</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -15680,10 +15824,13 @@
         <v>0</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
+      <c r="L60" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -15703,27 +15850,27 @@
     </row>
     <row r="61" spans="1:28">
       <c r="A61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C61" s="1" t="e">
-        <v>#N/A</v>
+      <c r="B61" s="1">
+        <v>45</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="D61" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E61">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F61" t="str">
         <f>VLOOKUP($E61,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Vietnam</v>
+        <v>United Kingdom</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -15732,10 +15879,13 @@
         <v>0</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
+      <c r="L61" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -15755,17 +15905,17 @@
     </row>
     <row r="62" spans="1:28">
       <c r="A62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C62" s="1" t="e">
-        <v>#N/A</v>
+      <c r="B62" s="1">
+        <v>169</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E62">
         <v>220</v>
@@ -15775,7 +15925,7 @@
         <v>Vietnam</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -15784,10 +15934,13 @@
         <v>0</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
+      <c r="L62" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -15806,38 +15959,9 @@
       <c r="AB62" s="1"/>
     </row>
     <row r="63" spans="1:28">
-      <c r="A63">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="B63" s="1">
-        <v>40</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D63" t="s">
-        <v>36</v>
-      </c>
-      <c r="E63">
-        <v>60</v>
-      </c>
-      <c r="F63" t="str">
-        <f>VLOOKUP($E63,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Egypt</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>6</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>352</v>
-      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -15857,689 +15981,786 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28">
-      <c r="A64">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="B64" s="1">
-        <v>91</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D64" t="s">
-        <v>26</v>
-      </c>
-      <c r="E64">
-        <v>44</v>
-      </c>
-      <c r="F64" t="str">
-        <f>VLOOKUP($E64,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>China</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>3</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
-      <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="1"/>
-      <c r="AA64" s="1"/>
-      <c r="AB64" s="1"/>
-    </row>
-    <row r="65" spans="1:28">
-      <c r="A65">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="B65" s="1">
-        <v>54</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="D65" t="s">
-        <v>57</v>
-      </c>
-      <c r="E65">
-        <v>124</v>
-      </c>
-      <c r="F65" t="str">
-        <f>VLOOKUP($E65,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Malaysia</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>2</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
-      <c r="AA65" s="1"/>
-      <c r="AB65" s="1"/>
-    </row>
-    <row r="66" spans="1:28">
-      <c r="A66">
-        <f t="shared" ref="A66:A75" si="2">ROW()-1</f>
-        <v>65</v>
-      </c>
-      <c r="B66" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C66" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D66" t="s">
-        <v>35</v>
-      </c>
-      <c r="E66">
-        <v>54</v>
-      </c>
-      <c r="F66" t="str">
-        <f>VLOOKUP($E66,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Czech Republic</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
-      <c r="AA66" s="1"/>
-      <c r="AB66" s="1"/>
-    </row>
-    <row r="67" spans="1:28">
-      <c r="A67">
-        <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="B67" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C67" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D67" t="s">
-        <v>38</v>
-      </c>
-      <c r="E67">
-        <v>64</v>
-      </c>
-      <c r="F67" t="str">
-        <f>VLOOKUP($E67,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Estonia</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
-      <c r="AB67" s="1"/>
-    </row>
-    <row r="68" spans="1:28">
-      <c r="A68">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="B68" s="1">
-        <v>203</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D68" t="s">
-        <v>47</v>
-      </c>
-      <c r="E68">
-        <v>94</v>
-      </c>
-      <c r="F68" t="str">
-        <f>VLOOKUP($E68,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Indonesia</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
-      <c r="AB68" s="1"/>
-    </row>
-    <row r="69" spans="1:28">
-      <c r="A69">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="B69" s="1">
-        <v>229</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D69" t="s">
-        <v>48</v>
-      </c>
-      <c r="E69">
-        <v>112</v>
-      </c>
-      <c r="F69" t="str">
-        <f>VLOOKUP($E69,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Latvia</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
-      <c r="AB69" s="1"/>
-    </row>
-    <row r="70" spans="1:28">
-      <c r="A70">
-        <f t="shared" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="B70" s="1">
-        <v>231</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D70" t="s">
-        <v>51</v>
-      </c>
-      <c r="E70">
-        <v>118</v>
-      </c>
-      <c r="F70" t="str">
-        <f>VLOOKUP($E70,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Lithuania</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
-      <c r="W70" s="1"/>
-      <c r="X70" s="1"/>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
-      <c r="AA70" s="1"/>
-      <c r="AB70" s="1"/>
-    </row>
-    <row r="71" spans="1:28">
-      <c r="A71">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="B71" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C71" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D71" t="s">
-        <v>55</v>
-      </c>
-      <c r="E71">
-        <v>118</v>
-      </c>
-      <c r="F71" t="str">
-        <f>VLOOKUP($E71,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Lithuania</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-    </row>
-    <row r="72" spans="1:28">
-      <c r="A72">
-        <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="B72" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C72" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D72" t="s">
-        <v>67</v>
-      </c>
-      <c r="E72">
-        <v>181</v>
-      </c>
-      <c r="F72" t="str">
-        <f>VLOOKUP($E72,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Slovakia</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
-      <c r="X72" s="1"/>
-      <c r="Y72" s="1"/>
-      <c r="Z72" s="1"/>
-      <c r="AA72" s="1"/>
-      <c r="AB72" s="1"/>
-    </row>
-    <row r="73" spans="1:28">
-      <c r="A73">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="B73" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C73" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D73" t="s">
-        <v>68</v>
-      </c>
-      <c r="E73">
-        <v>198</v>
-      </c>
-      <c r="F73" t="str">
-        <f>VLOOKUP($E73,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Taiwan</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
-      <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
-      <c r="W73" s="1"/>
-      <c r="X73" s="1"/>
-      <c r="Y73" s="1"/>
-      <c r="Z73" s="1"/>
-      <c r="AA73" s="1"/>
-      <c r="AB73" s="1"/>
-    </row>
-    <row r="74" spans="1:28">
-      <c r="A74">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="B74" s="1">
-        <v>45</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D74" t="s">
-        <v>69</v>
-      </c>
-      <c r="E74">
-        <v>215</v>
-      </c>
-      <c r="F74" t="str">
-        <f>VLOOKUP($E74,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>United Kingdom</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
-      <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
-      <c r="AA74" s="1"/>
-      <c r="AB74" s="1"/>
-    </row>
-    <row r="75" spans="1:28">
-      <c r="A75">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="B75" s="1">
-        <v>169</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D75" t="s">
-        <v>71</v>
-      </c>
-      <c r="E75">
-        <v>220</v>
-      </c>
-      <c r="F75" t="str">
-        <f>VLOOKUP($E75,Sheet1!$B$2:$C$234,2,FALSE)</f>
-        <v>Vietnam</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1"/>
-      <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
-      <c r="V75" s="1"/>
-      <c r="W75" s="1"/>
-      <c r="X75" s="1"/>
-      <c r="Y75" s="1"/>
-      <c r="Z75" s="1"/>
-      <c r="AA75" s="1"/>
-      <c r="AB75" s="1"/>
-    </row>
-    <row r="76" spans="1:28">
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
-      <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
-      <c r="V76" s="1"/>
-      <c r="W76" s="1"/>
-      <c r="X76" s="1"/>
-      <c r="Y76" s="1"/>
-      <c r="Z76" s="1"/>
-      <c r="AA76" s="1"/>
-      <c r="AB76" s="1"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:I75">
-    <sortCondition descending="1" ref="I2:I75"/>
-    <sortCondition descending="1" ref="G2:G75"/>
-    <sortCondition descending="1" ref="H2:H75"/>
-    <sortCondition ref="E2:E75"/>
+  <sortState ref="A2:I62">
+    <sortCondition descending="1" ref="I2:I62"/>
+    <sortCondition descending="1" ref="G2:G62"/>
+    <sortCondition descending="1" ref="H2:H62"/>
+    <sortCondition ref="E2:E62"/>
   </sortState>
-  <conditionalFormatting sqref="T2:U5 T66:U66 T7:U22 T6 T24:U33 T23 T35:U37 U34 T39:U41 U38 T44:U45 U42 T43 T47:U50 U46 T68:U68 T67 T71:U73 U69 T70 C2:D75">
+  <conditionalFormatting sqref="T2:U5 T6 T22 T23:U34 T36:U37 U35 U38 T39 T58:U58 U59 T60 T7:U21 T40:U44 C2:D62">
     <cfRule type="expression" dxfId="5" priority="9">
       <formula>COUNTIF($L$3:$Y$3,C2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:D75">
-    <cfRule type="duplicateValues" dxfId="4" priority="28"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>COUNTIF($L$3:$Y$3,Q3)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q69:S69 Q3 R20 R68:V68 R2 R17 T2:V5 T66:V66 T6 V6 T7:V20 Q21:U21 Q22 S22:V22 Q23:T23 V23 Q24:R25 T24:V25 T67 V67 U69:V69">
-    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
+  <conditionalFormatting sqref="Q59:S59 Q3 R58:V58 R2 R17 T2:V5 T6 V6 T7:V19 Q20:U20 Q21 S21:V21 Q22:T22 V22 Q23:R24 T23:V24 U59:V59">
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:D62">
+    <cfRule type="duplicateValues" dxfId="0" priority="162"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFCE8AD-6142-49AB-B5CA-C0356E3F26D5}">
+  <dimension ref="A1:CR91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:CR1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:96" ht="15.75" thickBot="1">
+      <c r="A1" s="10">
+        <v>91</v>
+      </c>
+      <c r="F1">
+        <v>91</v>
+      </c>
+      <c r="G1">
+        <v>190</v>
+      </c>
+      <c r="H1">
+        <v>189</v>
+      </c>
+      <c r="I1">
+        <v>248</v>
+      </c>
+      <c r="J1">
+        <v>188</v>
+      </c>
+      <c r="K1">
+        <v>182</v>
+      </c>
+      <c r="L1">
+        <v>239</v>
+      </c>
+      <c r="M1">
+        <v>238</v>
+      </c>
+      <c r="N1">
+        <v>193</v>
+      </c>
+      <c r="O1">
+        <v>236</v>
+      </c>
+      <c r="P1">
+        <v>237</v>
+      </c>
+      <c r="Q1">
+        <v>198</v>
+      </c>
+      <c r="R1">
+        <v>199</v>
+      </c>
+      <c r="S1">
+        <v>191</v>
+      </c>
+      <c r="T1">
+        <v>183</v>
+      </c>
+      <c r="U1">
+        <v>17</v>
+      </c>
+      <c r="V1">
+        <v>272</v>
+      </c>
+      <c r="W1">
+        <v>130</v>
+      </c>
+      <c r="X1">
+        <v>160</v>
+      </c>
+      <c r="Y1">
+        <v>128</v>
+      </c>
+      <c r="Z1">
+        <v>243</v>
+      </c>
+      <c r="AA1">
+        <v>88</v>
+      </c>
+      <c r="AB1">
+        <v>120</v>
+      </c>
+      <c r="AC1">
+        <v>122</v>
+      </c>
+      <c r="AD1">
+        <v>123</v>
+      </c>
+      <c r="AE1">
+        <v>117</v>
+      </c>
+      <c r="AF1">
+        <v>121</v>
+      </c>
+      <c r="AG1">
+        <v>124</v>
+      </c>
+      <c r="AH1">
+        <v>55</v>
+      </c>
+      <c r="AI1">
+        <v>101</v>
+      </c>
+      <c r="AJ1">
+        <v>200</v>
+      </c>
+      <c r="AK1">
+        <v>201</v>
+      </c>
+      <c r="AL1">
+        <v>224</v>
+      </c>
+      <c r="AM1">
+        <v>222</v>
+      </c>
+      <c r="AN1">
+        <v>223</v>
+      </c>
+      <c r="AO1">
+        <v>221</v>
+      </c>
+      <c r="AP1">
+        <v>166</v>
+      </c>
+      <c r="AQ1">
+        <v>46</v>
+      </c>
+      <c r="AR1">
+        <v>157</v>
+      </c>
+      <c r="AS1">
+        <v>98</v>
+      </c>
+      <c r="AT1">
+        <v>34</v>
+      </c>
+      <c r="AU1">
+        <v>219</v>
+      </c>
+      <c r="AV1">
+        <v>54</v>
+      </c>
+      <c r="AW1">
+        <v>283</v>
+      </c>
+      <c r="AX1">
+        <v>48</v>
+      </c>
+      <c r="AY1">
+        <v>276</v>
+      </c>
+      <c r="AZ1">
+        <v>213</v>
+      </c>
+      <c r="BA1">
+        <v>215</v>
+      </c>
+      <c r="BB1">
+        <v>84</v>
+      </c>
+      <c r="BC1">
+        <v>86</v>
+      </c>
+      <c r="BD1">
+        <v>83</v>
+      </c>
+      <c r="BE1">
+        <v>47</v>
+      </c>
+      <c r="BF1">
+        <v>170</v>
+      </c>
+      <c r="BG1">
+        <v>280</v>
+      </c>
+      <c r="BH1">
+        <v>208</v>
+      </c>
+      <c r="BI1">
+        <v>209</v>
+      </c>
+      <c r="BJ1">
+        <v>279</v>
+      </c>
+      <c r="BK1">
+        <v>278</v>
+      </c>
+      <c r="BL1">
+        <v>93</v>
+      </c>
+      <c r="BM1">
+        <v>1</v>
+      </c>
+      <c r="BN1">
+        <v>109</v>
+      </c>
+      <c r="BO1">
+        <v>107</v>
+      </c>
+      <c r="BP1">
+        <v>115</v>
+      </c>
+      <c r="BQ1">
+        <v>90</v>
+      </c>
+      <c r="BR1">
+        <v>111</v>
+      </c>
+      <c r="BS1">
+        <v>113</v>
+      </c>
+      <c r="BT1">
+        <v>218</v>
+      </c>
+      <c r="BU1">
+        <v>6</v>
+      </c>
+      <c r="BV1">
+        <v>5</v>
+      </c>
+      <c r="BW1">
+        <v>137</v>
+      </c>
+      <c r="BX1">
+        <v>176</v>
+      </c>
+      <c r="BY1">
+        <v>64</v>
+      </c>
+      <c r="BZ1">
+        <v>81</v>
+      </c>
+      <c r="CA1">
+        <v>274</v>
+      </c>
+      <c r="CB1">
+        <v>97</v>
+      </c>
+      <c r="CC1">
+        <v>26</v>
+      </c>
+      <c r="CD1">
+        <v>277</v>
+      </c>
+      <c r="CE1">
+        <v>251</v>
+      </c>
+      <c r="CF1">
+        <v>275</v>
+      </c>
+      <c r="CG1">
+        <v>141</v>
+      </c>
+      <c r="CH1">
+        <v>180</v>
+      </c>
+      <c r="CI1">
+        <v>203</v>
+      </c>
+      <c r="CJ1">
+        <v>169</v>
+      </c>
+      <c r="CK1">
+        <v>15</v>
+      </c>
+      <c r="CL1">
+        <v>82</v>
+      </c>
+      <c r="CM1">
+        <v>285</v>
+      </c>
+      <c r="CN1">
+        <v>286</v>
+      </c>
+      <c r="CO1">
+        <v>284</v>
+      </c>
+      <c r="CP1">
+        <v>287</v>
+      </c>
+      <c r="CQ1">
+        <v>281</v>
+      </c>
+      <c r="CR1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:96" ht="15.75" thickBot="1">
+      <c r="A2" s="10">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:96" ht="15.75" thickBot="1">
+      <c r="A3" s="10">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:96" ht="15.75" thickBot="1">
+      <c r="A4" s="10">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:96" ht="15.75" thickBot="1">
+      <c r="A5" s="10">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:96" ht="15.75" thickBot="1">
+      <c r="A6" s="10">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:96" ht="15.75" thickBot="1">
+      <c r="A7" s="10">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:96" ht="15.75" thickBot="1">
+      <c r="A8" s="10">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:96" ht="15.75" thickBot="1">
+      <c r="A9" s="10">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:96" ht="15.75" thickBot="1">
+      <c r="A10" s="10">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:96" ht="15.75" thickBot="1">
+      <c r="A11" s="10">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:96" ht="15.75" thickBot="1">
+      <c r="A12" s="10">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:96" ht="15.75" thickBot="1">
+      <c r="A13" s="10">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:96" ht="15.75" thickBot="1">
+      <c r="A14" s="10">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:96" ht="15.75" thickBot="1">
+      <c r="A15" s="10">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:96" ht="15.75" thickBot="1">
+      <c r="A16" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A17" s="10">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A18" s="10">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A19" s="10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A20" s="10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A21" s="10">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A22" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A23" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A24" s="10">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A25" s="10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A26" s="10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A27" s="10">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A28" s="10">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A29" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A30" s="10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A31" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A32" s="10">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A33" s="10">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A34" s="10">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A35" s="10">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A36" s="10">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A37" s="10">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A38" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A39" s="10">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A40" s="10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A41" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A42" s="10">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A43" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A44" s="10">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A45" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A46" s="10">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A47" s="10">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A48" s="10">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A49" s="10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A50" s="10">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A51" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A52" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A53" s="10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A54" s="10">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A55" s="10">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A56" s="10">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A57" s="10">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A58" s="10">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A59" s="10">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A60" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A61" s="10">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A62" s="10">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A63" s="10">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A64" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A65" s="10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A66" s="10">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A67" s="10">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A68" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A69" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A70" s="10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A71" s="10">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A72" s="10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A73" s="10">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A74" s="10">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A75" s="10">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A76" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A77" s="10">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A78" s="10">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A79" s="10">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A80" s="10">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A81" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A82" s="10">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A83" s="10">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A84" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A85" s="10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A86" s="10">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A87" s="10">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A88" s="10">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A89" s="10">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A90" s="10">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A91" s="10">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:EF141"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16550,408 +16771,394 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>409</v>
+        <v>565</v>
       </c>
       <c r="B2" s="8">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>355</v>
+        <v>566</v>
       </c>
       <c r="D2" s="8">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F2" s="9">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>409</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="6" t="s">
-        <v>411</v>
+        <v>588</v>
       </c>
       <c r="B3" s="8">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>412</v>
+        <v>589</v>
       </c>
       <c r="D3" s="8">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F3" s="9">
         <v>1</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1">
       <c r="A4" s="6" t="s">
-        <v>414</v>
+        <v>585</v>
       </c>
       <c r="B4" s="8">
-        <v>190</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>415</v>
+        <v>586</v>
       </c>
       <c r="D4" s="8">
-        <v>190</v>
+        <v>6</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F4" s="9">
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>414</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1">
       <c r="A5" s="6" t="s">
-        <v>416</v>
+        <v>623</v>
       </c>
       <c r="B5" s="8">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>417</v>
+        <v>342</v>
       </c>
       <c r="D5" s="8">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F5" s="9">
         <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>416</v>
+        <v>624</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
       <c r="A6" s="6" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="B6" s="8">
-        <v>248</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>419</v>
+        <v>348</v>
       </c>
       <c r="D6" s="8">
-        <v>248</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F6" s="9">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1">
       <c r="A7" s="6" t="s">
-        <v>421</v>
+        <v>545</v>
       </c>
       <c r="B7" s="8">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>386</v>
+        <v>546</v>
       </c>
       <c r="D7" s="8">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F7" s="9">
         <v>1</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>422</v>
-      </c>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
-        <v>423</v>
+        <v>622</v>
       </c>
       <c r="B8" s="8">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>424</v>
+        <v>375</v>
       </c>
       <c r="D8" s="8">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F8" s="9">
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>423</v>
-      </c>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="6" t="s">
-        <v>425</v>
+        <v>557</v>
       </c>
       <c r="B9" s="8">
-        <v>239</v>
+        <v>23</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>374</v>
+        <v>558</v>
       </c>
       <c r="D9" s="8">
-        <v>239</v>
+        <v>23</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>425</v>
-      </c>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1">
       <c r="A10" s="6" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B10" s="8">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>373</v>
+        <v>430</v>
       </c>
       <c r="D10" s="8">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F10" s="9">
         <v>1</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>426</v>
-      </c>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="6" t="s">
-        <v>427</v>
+        <v>608</v>
       </c>
       <c r="B11" s="8">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="D11" s="8">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F11" s="9">
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>427</v>
+        <v>609</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" s="6" t="s">
-        <v>429</v>
+        <v>567</v>
       </c>
       <c r="B12" s="8">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>430</v>
+        <v>568</v>
       </c>
       <c r="D12" s="8">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F12" s="9">
         <v>1</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>429</v>
-      </c>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1">
       <c r="A13" s="6" t="s">
-        <v>431</v>
+        <v>498</v>
       </c>
       <c r="B13" s="8">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>432</v>
+        <v>349</v>
       </c>
       <c r="D13" s="8">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F13" s="9">
         <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>431</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="6" t="s">
-        <v>433</v>
+        <v>555</v>
       </c>
       <c r="B14" s="8">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>366</v>
+        <v>556</v>
       </c>
       <c r="D14" s="8">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F14" s="9">
         <v>1</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>433</v>
-      </c>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1">
       <c r="A15" s="6" t="s">
-        <v>434</v>
+        <v>621</v>
       </c>
       <c r="B15" s="8">
-        <v>199</v>
+        <v>38</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="D15" s="8">
-        <v>199</v>
+        <v>38</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F15" s="9">
         <v>1</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>434</v>
-      </c>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1">
       <c r="A16" s="6" t="s">
-        <v>435</v>
+        <v>638</v>
       </c>
       <c r="B16" s="8">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>436</v>
+        <v>351</v>
       </c>
       <c r="D16" s="8">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F16" s="9">
         <v>1</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>435</v>
+        <v>639</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1">
       <c r="A17" s="6" t="s">
-        <v>437</v>
+        <v>563</v>
       </c>
       <c r="B17" s="8">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>438</v>
+        <v>564</v>
       </c>
       <c r="D17" s="8">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F17" s="9">
         <v>1</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>439</v>
-      </c>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1">
       <c r="A18" s="6" t="s">
-        <v>440</v>
+        <v>561</v>
       </c>
       <c r="B18" s="8">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>441</v>
+        <v>562</v>
       </c>
       <c r="D18" s="8">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="F18" s="9">
         <v>1</v>
@@ -16960,19 +17167,19 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1">
       <c r="A19" s="6" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="B19" s="8">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>443</v>
+        <v>387</v>
       </c>
       <c r="D19" s="8">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="F19" s="9">
         <v>1</v>
@@ -16981,155 +17188,155 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1">
       <c r="A20" s="6" t="s">
-        <v>444</v>
+        <v>490</v>
       </c>
       <c r="B20" s="8">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>349</v>
+        <v>491</v>
       </c>
       <c r="D20" s="8">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F20" s="9">
         <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1">
       <c r="A21" s="6" t="s">
-        <v>446</v>
+        <v>531</v>
       </c>
       <c r="B21" s="8">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>447</v>
+        <v>347</v>
       </c>
       <c r="D21" s="8">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F21" s="9">
         <v>1</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1">
       <c r="A22" s="6" t="s">
-        <v>448</v>
+        <v>509</v>
       </c>
       <c r="B22" s="8">
-        <v>272</v>
+        <v>48</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>449</v>
+        <v>333</v>
       </c>
       <c r="D22" s="8">
-        <v>272</v>
+        <v>48</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F22" s="9">
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>448</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1">
       <c r="A23" s="6" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="B23" s="8">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
       <c r="D23" s="8">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F23" s="9">
         <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1">
       <c r="A24" s="6" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="B24" s="8">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="D24" s="8">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F24" s="9">
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1">
       <c r="A25" s="6" t="s">
-        <v>454</v>
+        <v>547</v>
       </c>
       <c r="B25" s="8">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>455</v>
+        <v>548</v>
       </c>
       <c r="D25" s="8">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F25" s="9">
         <v>1</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>454</v>
-      </c>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1">
       <c r="A26" s="6" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="B26" s="8">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>457</v>
+        <v>332</v>
       </c>
       <c r="D26" s="8">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="F26" s="9">
         <v>1</v>
@@ -17138,19 +17345,19 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1">
       <c r="A27" s="6" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="B27" s="8">
-        <v>242</v>
+        <v>61</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="D27" s="8">
-        <v>242</v>
+        <v>61</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="F27" s="9">
         <v>1</v>
@@ -17159,722 +17366,722 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1">
       <c r="A28" s="6" t="s">
-        <v>460</v>
+        <v>593</v>
       </c>
       <c r="B28" s="8">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>461</v>
+        <v>594</v>
       </c>
       <c r="D28" s="8">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F28" s="9">
         <v>1</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1">
       <c r="A29" s="6" t="s">
-        <v>462</v>
+        <v>559</v>
       </c>
       <c r="B29" s="8">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>463</v>
+        <v>560</v>
       </c>
       <c r="D29" s="8">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F29" s="9">
         <v>1</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>464</v>
-      </c>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1">
       <c r="A30" s="6" t="s">
-        <v>465</v>
+        <v>553</v>
       </c>
       <c r="B30" s="8">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>390</v>
+        <v>554</v>
       </c>
       <c r="D30" s="8">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F30" s="9">
         <v>1</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>465</v>
-      </c>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1">
       <c r="A31" s="6" t="s">
-        <v>466</v>
+        <v>595</v>
       </c>
       <c r="B31" s="8">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>467</v>
+        <v>381</v>
       </c>
       <c r="D31" s="8">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F31" s="9">
         <v>1</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>468</v>
+        <v>595</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1">
       <c r="A32" s="6" t="s">
-        <v>469</v>
+        <v>627</v>
       </c>
       <c r="B32" s="8">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>470</v>
+        <v>343</v>
       </c>
       <c r="D32" s="8">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F32" s="9">
         <v>1</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>471</v>
+        <v>627</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1">
       <c r="A33" s="6" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="B33" s="8">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>473</v>
+        <v>345</v>
       </c>
       <c r="D33" s="8">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F33" s="9">
         <v>1</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1">
       <c r="A34" s="6" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="B34" s="8">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>476</v>
+        <v>356</v>
       </c>
       <c r="D34" s="8">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>477</v>
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1">
       <c r="A35" s="6" t="s">
-        <v>478</v>
+        <v>528</v>
       </c>
       <c r="B35" s="8">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>479</v>
+        <v>357</v>
       </c>
       <c r="D35" s="8">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F35" s="9">
         <v>1</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>480</v>
+        <v>528</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1">
       <c r="A36" s="6" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="B36" s="8">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>482</v>
+        <v>382</v>
       </c>
       <c r="D36" s="8">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F36" s="9">
         <v>1</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1">
       <c r="A37" s="6" t="s">
-        <v>484</v>
+        <v>579</v>
       </c>
       <c r="B37" s="8">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>485</v>
+        <v>580</v>
       </c>
       <c r="D37" s="8">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F37" s="9">
         <v>1</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>486</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1">
       <c r="A38" s="6" t="s">
-        <v>487</v>
+        <v>396</v>
       </c>
       <c r="B38" s="8">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>488</v>
+        <v>353</v>
       </c>
       <c r="D38" s="8">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F38" s="9">
         <v>1</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>487</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1">
       <c r="A39" s="6" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="B39" s="8">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D39" s="8">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F39" s="9">
         <v>1</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1">
       <c r="A40" s="6" t="s">
-        <v>491</v>
+        <v>606</v>
       </c>
       <c r="B40" s="8">
-        <v>201</v>
+        <v>97</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="D40" s="8">
-        <v>201</v>
+        <v>97</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F40" s="9">
         <v>1</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>492</v>
+        <v>607</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1">
       <c r="A41" s="6" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B41" s="8">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>494</v>
+        <v>354</v>
       </c>
       <c r="D41" s="8">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F41" s="9">
         <v>1</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1">
       <c r="A42" s="6" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="B42" s="8">
-        <v>222</v>
+        <v>101</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="D42" s="8">
-        <v>222</v>
+        <v>101</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F42" s="9">
         <v>1</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1">
       <c r="A43" s="6" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="B43" s="8">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>498</v>
+        <v>359</v>
       </c>
       <c r="D43" s="8">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F43" s="9">
         <v>1</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>497</v>
-      </c>
+      <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1">
       <c r="A44" s="6" t="s">
-        <v>499</v>
+        <v>577</v>
       </c>
       <c r="B44" s="8">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>500</v>
+        <v>364</v>
       </c>
       <c r="D44" s="8">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F44" s="9">
         <v>1</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>499</v>
+        <v>577</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" thickBot="1">
       <c r="A45" s="6" t="s">
-        <v>501</v>
+        <v>576</v>
       </c>
       <c r="B45" s="8">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>502</v>
+        <v>365</v>
       </c>
       <c r="D45" s="8">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F45" s="9">
         <v>1</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>501</v>
+        <v>576</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1">
       <c r="A46" s="6" t="s">
-        <v>503</v>
+        <v>581</v>
       </c>
       <c r="B46" s="8">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>504</v>
+        <v>366</v>
       </c>
       <c r="D46" s="8">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F46" s="9">
         <v>1</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>505</v>
+        <v>581</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1">
       <c r="A47" s="6" t="s">
-        <v>506</v>
+        <v>582</v>
       </c>
       <c r="B47" s="8">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="D47" s="8">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F47" s="9">
         <v>1</v>
       </c>
-      <c r="G47" s="5"/>
+      <c r="G47" s="5" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" thickBot="1">
       <c r="A48" s="6" t="s">
-        <v>507</v>
+        <v>578</v>
       </c>
       <c r="B48" s="8">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>508</v>
+        <v>379</v>
       </c>
       <c r="D48" s="8">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F48" s="9">
         <v>1</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>507</v>
+        <v>578</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1">
       <c r="A49" s="6" t="s">
-        <v>509</v>
+        <v>462</v>
       </c>
       <c r="B49" s="8">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>327</v>
+        <v>463</v>
       </c>
       <c r="D49" s="8">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F49" s="9">
         <v>1</v>
       </c>
-      <c r="G49" s="5"/>
+      <c r="G49" s="5" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1">
       <c r="A50" s="6" t="s">
-        <v>510</v>
+        <v>453</v>
       </c>
       <c r="B50" s="8">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>356</v>
+        <v>454</v>
       </c>
       <c r="D50" s="8">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F50" s="9">
         <v>1</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>510</v>
+        <v>455</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1">
       <c r="A51" s="6" t="s">
-        <v>511</v>
+        <v>465</v>
       </c>
       <c r="B51" s="8">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>350</v>
+        <v>466</v>
       </c>
       <c r="D51" s="8">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F51" s="9">
         <v>1</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>511</v>
+        <v>467</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1">
       <c r="A52" s="6" t="s">
-        <v>512</v>
+        <v>456</v>
       </c>
       <c r="B52" s="8">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>513</v>
+        <v>457</v>
       </c>
       <c r="D52" s="8">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F52" s="9">
         <v>1</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>514</v>
+        <v>458</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1">
       <c r="A53" s="6" t="s">
-        <v>515</v>
+        <v>459</v>
       </c>
       <c r="B53" s="8">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>516</v>
+        <v>460</v>
       </c>
       <c r="D53" s="8">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F53" s="9">
         <v>1</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>517</v>
+        <v>461</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1">
       <c r="A54" s="6" t="s">
-        <v>518</v>
+        <v>468</v>
       </c>
       <c r="B54" s="8">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>333</v>
+        <v>469</v>
       </c>
       <c r="D54" s="8">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F54" s="9">
         <v>1</v>
       </c>
-      <c r="G54" s="5"/>
+      <c r="G54" s="5" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" thickBot="1">
       <c r="A55" s="6" t="s">
-        <v>519</v>
+        <v>596</v>
       </c>
       <c r="B55" s="8">
-        <v>283</v>
+        <v>127</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>520</v>
+        <v>344</v>
       </c>
       <c r="D55" s="8">
-        <v>283</v>
+        <v>127</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F55" s="9">
         <v>1</v>
       </c>
-      <c r="G55" s="5" t="s">
-        <v>521</v>
-      </c>
+      <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1">
       <c r="A56" s="6" t="s">
-        <v>522</v>
+        <v>441</v>
       </c>
       <c r="B56" s="8">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>334</v>
+        <v>442</v>
       </c>
       <c r="D56" s="8">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F56" s="9">
         <v>1</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>523</v>
+        <v>441</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1">
       <c r="A57" s="6" t="s">
-        <v>524</v>
+        <v>398</v>
       </c>
       <c r="B57" s="8">
-        <v>276</v>
+        <v>129</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>525</v>
+        <v>399</v>
       </c>
       <c r="D57" s="8">
-        <v>276</v>
+        <v>129</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F57" s="9">
         <v>1</v>
       </c>
-      <c r="G57" s="5" t="s">
-        <v>526</v>
-      </c>
+      <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1">
       <c r="A58" s="6" t="s">
-        <v>527</v>
+        <v>437</v>
       </c>
       <c r="B58" s="8">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>528</v>
+        <v>438</v>
       </c>
       <c r="D58" s="8">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F58" s="9">
         <v>1</v>
       </c>
-      <c r="G58" s="5"/>
+      <c r="G58" s="5" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1">
       <c r="A59" s="6" t="s">
-        <v>529</v>
+        <v>496</v>
       </c>
       <c r="B59" s="8">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>530</v>
+        <v>327</v>
       </c>
       <c r="D59" s="8">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="F59" s="9">
         <v>1</v>
@@ -17883,40 +18090,42 @@
     </row>
     <row r="60" spans="1:7" ht="15.75" thickBot="1">
       <c r="A60" s="6" t="s">
-        <v>531</v>
+        <v>590</v>
       </c>
       <c r="B60" s="8">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>532</v>
+        <v>340</v>
       </c>
       <c r="D60" s="8">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F60" s="9">
         <v>1</v>
       </c>
-      <c r="G60" s="5"/>
+      <c r="G60" s="5" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1">
       <c r="A61" s="6" t="s">
-        <v>533</v>
+        <v>443</v>
       </c>
       <c r="B61" s="8">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>362</v>
+        <v>444</v>
       </c>
       <c r="D61" s="8">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="F61" s="9">
         <v>1</v>
@@ -17925,339 +18134,327 @@
     </row>
     <row r="62" spans="1:7" ht="15.75" thickBot="1">
       <c r="A62" s="6" t="s">
-        <v>534</v>
+        <v>604</v>
       </c>
       <c r="B62" s="8">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>535</v>
+        <v>605</v>
       </c>
       <c r="D62" s="8">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F62" s="9">
         <v>1</v>
       </c>
-      <c r="G62" s="5" t="s">
-        <v>536</v>
-      </c>
+      <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" thickBot="1">
       <c r="A63" s="6" t="s">
-        <v>537</v>
+        <v>616</v>
       </c>
       <c r="B63" s="8">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D63" s="8">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F63" s="9">
         <v>1</v>
       </c>
-      <c r="G63" s="5"/>
+      <c r="G63" s="5" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1">
       <c r="A64" s="6" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="B64" s="8">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>357</v>
+        <v>517</v>
       </c>
       <c r="D64" s="8">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F64" s="9">
         <v>1</v>
       </c>
-      <c r="G64" s="5" t="s">
-        <v>539</v>
-      </c>
+      <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:7" ht="15.75" thickBot="1">
       <c r="A65" s="6" t="s">
-        <v>540</v>
+        <v>514</v>
       </c>
       <c r="B65" s="8">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>358</v>
+        <v>515</v>
       </c>
       <c r="D65" s="8">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F65" s="9">
         <v>1</v>
       </c>
-      <c r="G65" s="5" t="s">
-        <v>540</v>
-      </c>
+      <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1">
       <c r="A66" s="6" t="s">
-        <v>541</v>
+        <v>494</v>
       </c>
       <c r="B66" s="8">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>359</v>
+        <v>495</v>
       </c>
       <c r="D66" s="8">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F66" s="9">
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>541</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1">
       <c r="A67" s="6" t="s">
-        <v>542</v>
+        <v>439</v>
       </c>
       <c r="B67" s="8">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>346</v>
+        <v>440</v>
       </c>
       <c r="D67" s="8">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F67" s="9">
         <v>1</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>543</v>
+        <v>439</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A68" s="6" t="s">
-        <v>544</v>
+      <c r="A68" s="11" t="s">
+        <v>640</v>
       </c>
       <c r="B68" s="8">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="D68" s="8">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F68" s="9">
         <v>1</v>
       </c>
-      <c r="G68" s="5" t="s">
-        <v>544</v>
-      </c>
+      <c r="G68" s="5"/>
     </row>
     <row r="69" spans="1:7" ht="15.75" thickBot="1">
       <c r="A69" s="6" t="s">
-        <v>545</v>
+        <v>488</v>
       </c>
       <c r="B69" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>546</v>
+        <v>489</v>
       </c>
       <c r="D69" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F69" s="9">
         <v>1</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>545</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" thickBot="1">
       <c r="A70" s="6" t="s">
-        <v>547</v>
+        <v>433</v>
       </c>
       <c r="B70" s="8">
-        <v>280</v>
+        <v>167</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>548</v>
+        <v>434</v>
       </c>
       <c r="D70" s="8">
-        <v>280</v>
+        <v>167</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F70" s="9">
         <v>1</v>
       </c>
-      <c r="G70" s="5" t="s">
-        <v>547</v>
-      </c>
+      <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1">
       <c r="A71" s="6" t="s">
-        <v>549</v>
+        <v>620</v>
       </c>
       <c r="B71" s="8">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>550</v>
+        <v>386</v>
       </c>
       <c r="D71" s="8">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F71" s="9">
         <v>1</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>551</v>
+        <v>620</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1">
       <c r="A72" s="6" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="B72" s="8">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>329</v>
+        <v>533</v>
       </c>
       <c r="D72" s="8">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F72" s="9">
         <v>1</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15.75" thickBot="1">
       <c r="A73" s="6" t="s">
-        <v>553</v>
+        <v>599</v>
       </c>
       <c r="B73" s="8">
-        <v>279</v>
+        <v>172</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>554</v>
+        <v>337</v>
       </c>
       <c r="D73" s="8">
-        <v>279</v>
+        <v>172</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F73" s="9">
         <v>1</v>
       </c>
-      <c r="G73" s="5" t="s">
-        <v>553</v>
-      </c>
+      <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:7" ht="15.75" thickBot="1">
       <c r="A74" s="6" t="s">
-        <v>555</v>
+        <v>600</v>
       </c>
       <c r="B74" s="8">
-        <v>278</v>
+        <v>174</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>556</v>
+        <v>601</v>
       </c>
       <c r="D74" s="8">
-        <v>278</v>
+        <v>174</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F74" s="9">
         <v>1</v>
       </c>
-      <c r="G74" s="5" t="s">
-        <v>555</v>
-      </c>
+      <c r="G74" s="5"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" thickBot="1">
       <c r="A75" s="6" t="s">
-        <v>557</v>
+        <v>591</v>
       </c>
       <c r="B75" s="8">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>335</v>
+        <v>592</v>
       </c>
       <c r="D75" s="8">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F75" s="9">
         <v>1</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>557</v>
+        <v>591</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" thickBot="1">
       <c r="A76" s="6" t="s">
-        <v>558</v>
+        <v>518</v>
       </c>
       <c r="B76" s="8">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>559</v>
+        <v>519</v>
       </c>
       <c r="D76" s="8">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="F76" s="9">
         <v>1</v>
@@ -18266,378 +18463,410 @@
     </row>
     <row r="77" spans="1:7" ht="15.75" thickBot="1">
       <c r="A77" s="6" t="s">
-        <v>560</v>
+        <v>617</v>
       </c>
       <c r="B77" s="8">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>561</v>
+        <v>618</v>
       </c>
       <c r="D77" s="8">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F77" s="9">
         <v>1</v>
       </c>
-      <c r="G77" s="5"/>
+      <c r="G77" s="5" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="78" spans="1:7" ht="15.75" thickBot="1">
       <c r="A78" s="6" t="s">
-        <v>562</v>
+        <v>410</v>
       </c>
       <c r="B78" s="8">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>563</v>
+        <v>411</v>
       </c>
       <c r="D78" s="8">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F78" s="9">
         <v>1</v>
       </c>
-      <c r="G78" s="5"/>
+      <c r="G78" s="5" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="79" spans="1:7" ht="15.75" thickBot="1">
       <c r="A79" s="6" t="s">
-        <v>564</v>
+        <v>424</v>
       </c>
       <c r="B79" s="8">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>565</v>
+        <v>425</v>
       </c>
       <c r="D79" s="8">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F79" s="9">
         <v>1</v>
       </c>
-      <c r="G79" s="5"/>
+      <c r="G79" s="5" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" thickBot="1">
       <c r="A80" s="6" t="s">
-        <v>566</v>
+        <v>408</v>
       </c>
       <c r="B80" s="8">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>567</v>
+        <v>378</v>
       </c>
       <c r="D80" s="8">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F80" s="9">
         <v>1</v>
       </c>
-      <c r="G80" s="5"/>
+      <c r="G80" s="5" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="81" spans="1:7" ht="15.75" thickBot="1">
       <c r="A81" s="6" t="s">
-        <v>568</v>
+        <v>403</v>
       </c>
       <c r="B81" s="8">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>569</v>
+        <v>404</v>
       </c>
       <c r="D81" s="8">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F81" s="9">
         <v>1</v>
       </c>
-      <c r="G81" s="5"/>
+      <c r="G81" s="5" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="82" spans="1:7" ht="15.75" thickBot="1">
       <c r="A82" s="6" t="s">
-        <v>570</v>
+        <v>401</v>
       </c>
       <c r="B82" s="8">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>571</v>
+        <v>402</v>
       </c>
       <c r="D82" s="8">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F82" s="9">
         <v>1</v>
       </c>
-      <c r="G82" s="5"/>
+      <c r="G82" s="5" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="83" spans="1:7" ht="15.75" thickBot="1">
       <c r="A83" s="6" t="s">
-        <v>572</v>
+        <v>422</v>
       </c>
       <c r="B83" s="8">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>573</v>
+        <v>423</v>
       </c>
       <c r="D83" s="8">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F83" s="9">
         <v>1</v>
       </c>
-      <c r="G83" s="5"/>
+      <c r="G83" s="5" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="84" spans="1:7" ht="15.75" thickBot="1">
       <c r="A84" s="6" t="s">
-        <v>574</v>
+        <v>414</v>
       </c>
       <c r="B84" s="8">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>575</v>
+        <v>415</v>
       </c>
       <c r="D84" s="8">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F84" s="9">
         <v>1</v>
       </c>
-      <c r="G84" s="5"/>
+      <c r="G84" s="5" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="85" spans="1:7" ht="15.75" thickBot="1">
       <c r="A85" s="6" t="s">
-        <v>576</v>
+        <v>420</v>
       </c>
       <c r="B85" s="8">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>577</v>
+        <v>363</v>
       </c>
       <c r="D85" s="8">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F85" s="9">
         <v>1</v>
       </c>
-      <c r="G85" s="5"/>
+      <c r="G85" s="5" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="86" spans="1:7" ht="15.75" thickBot="1">
       <c r="A86" s="6" t="s">
-        <v>578</v>
+        <v>421</v>
       </c>
       <c r="B86" s="8">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>579</v>
+        <v>385</v>
       </c>
       <c r="D86" s="8">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F86" s="9">
         <v>1</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>578</v>
+        <v>421</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15.75" thickBot="1">
       <c r="A87" s="6" t="s">
-        <v>580</v>
+        <v>476</v>
       </c>
       <c r="B87" s="8">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>581</v>
+        <v>338</v>
       </c>
       <c r="D87" s="8">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F87" s="9">
         <v>1</v>
       </c>
-      <c r="G87" s="5"/>
+      <c r="G87" s="5" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="88" spans="1:7" ht="15.75" thickBot="1">
       <c r="A88" s="6" t="s">
-        <v>582</v>
+        <v>478</v>
       </c>
       <c r="B88" s="8">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="D88" s="8">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F88" s="9">
         <v>1</v>
       </c>
-      <c r="G88" s="5"/>
+      <c r="G88" s="5" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="89" spans="1:7" ht="15.75" thickBot="1">
       <c r="A89" s="6" t="s">
-        <v>583</v>
+        <v>619</v>
       </c>
       <c r="B89" s="8">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D89" s="8">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F89" s="9">
         <v>1</v>
       </c>
-      <c r="G89" s="5"/>
+      <c r="G89" s="5" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" thickBot="1">
       <c r="A90" s="6" t="s">
-        <v>584</v>
+        <v>536</v>
       </c>
       <c r="B90" s="8">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>378</v>
+        <v>537</v>
       </c>
       <c r="D90" s="8">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F90" s="9">
         <v>1</v>
       </c>
-      <c r="G90" s="5"/>
+      <c r="G90" s="5" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" thickBot="1">
       <c r="A91" s="6" t="s">
-        <v>585</v>
+        <v>539</v>
       </c>
       <c r="B91" s="8">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="D91" s="8">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F91" s="9">
         <v>1</v>
       </c>
-      <c r="G91" s="5"/>
+      <c r="G91" s="5" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="92" spans="1:7" ht="15.75" thickBot="1">
       <c r="A92" s="6" t="s">
-        <v>586</v>
+        <v>521</v>
       </c>
       <c r="B92" s="8">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>381</v>
+        <v>522</v>
       </c>
       <c r="D92" s="8">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F92" s="9">
         <v>1</v>
       </c>
-      <c r="G92" s="5"/>
+      <c r="G92" s="5" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="93" spans="1:7" ht="15.75" thickBot="1">
       <c r="A93" s="6" t="s">
-        <v>587</v>
+        <v>525</v>
       </c>
       <c r="B93" s="8">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="D93" s="8">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F93" s="9">
         <v>1</v>
       </c>
-      <c r="G93" s="5"/>
+      <c r="G93" s="5" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="94" spans="1:7" ht="15.75" thickBot="1">
       <c r="A94" s="6" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="B94" s="8">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D94" s="8">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="F94" s="9">
         <v>1</v>
@@ -18646,203 +18875,199 @@
     </row>
     <row r="95" spans="1:7" ht="15.75" thickBot="1">
       <c r="A95" s="6" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="B95" s="8">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="D95" s="8">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F95" s="9">
         <v>1</v>
       </c>
-      <c r="G95" s="5" t="s">
-        <v>589</v>
-      </c>
+      <c r="G95" s="5"/>
     </row>
     <row r="96" spans="1:7" ht="15.75" thickBot="1">
       <c r="A96" s="6" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B96" s="8">
-        <v>107</v>
+        <v>218</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="D96" s="8">
-        <v>107</v>
+        <v>218</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F96" s="9">
         <v>1</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" thickBot="1">
       <c r="A97" s="6" t="s">
-        <v>591</v>
+        <v>499</v>
       </c>
       <c r="B97" s="8">
-        <v>115</v>
+        <v>219</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>387</v>
+        <v>500</v>
       </c>
       <c r="D97" s="8">
-        <v>115</v>
+        <v>219</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F97" s="9">
         <v>1</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>591</v>
+        <v>501</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15.75" thickBot="1">
       <c r="A98" s="6" t="s">
-        <v>592</v>
+        <v>520</v>
       </c>
       <c r="B98" s="8">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>593</v>
+        <v>360</v>
       </c>
       <c r="D98" s="8">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F98" s="9">
         <v>1</v>
       </c>
-      <c r="G98" s="5" t="s">
-        <v>592</v>
-      </c>
+      <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7" ht="15.75" thickBot="1">
       <c r="A99" s="6" t="s">
-        <v>594</v>
+        <v>486</v>
       </c>
       <c r="B99" s="8">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>371</v>
+        <v>487</v>
       </c>
       <c r="D99" s="8">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F99" s="9">
         <v>1</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>594</v>
+        <v>486</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15.75" thickBot="1">
       <c r="A100" s="6" t="s">
-        <v>595</v>
+        <v>482</v>
       </c>
       <c r="B100" s="8">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>372</v>
+        <v>483</v>
       </c>
       <c r="D100" s="8">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F100" s="9">
         <v>1</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>595</v>
+        <v>482</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15.75" thickBot="1">
       <c r="A101" s="6" t="s">
-        <v>596</v>
+        <v>484</v>
       </c>
       <c r="B101" s="8">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>332</v>
+        <v>485</v>
       </c>
       <c r="D101" s="8">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F101" s="9">
         <v>1</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>597</v>
+        <v>484</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15.75" thickBot="1">
       <c r="A102" s="6" t="s">
-        <v>598</v>
+        <v>480</v>
       </c>
       <c r="B102" s="8">
-        <v>6</v>
+        <v>224</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>599</v>
+        <v>481</v>
       </c>
       <c r="D102" s="8">
-        <v>6</v>
+        <v>224</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F102" s="9">
         <v>1</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>598</v>
+        <v>480</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" thickBot="1">
       <c r="A103" s="6" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="B103" s="8">
         <v>226</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D103" s="8">
         <v>226</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="F103" s="9">
         <v>1</v>
@@ -18851,134 +19076,124 @@
     </row>
     <row r="104" spans="1:7" ht="15.75" thickBot="1">
       <c r="A104" s="6" t="s">
-        <v>601</v>
+        <v>569</v>
       </c>
       <c r="B104" s="8">
-        <v>5</v>
+        <v>228</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>602</v>
+        <v>370</v>
       </c>
       <c r="D104" s="8">
-        <v>5</v>
+        <v>228</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F104" s="9">
         <v>1</v>
       </c>
-      <c r="G104" s="5" t="s">
-        <v>601</v>
-      </c>
+      <c r="G104" s="5"/>
     </row>
     <row r="105" spans="1:7" ht="15.75" thickBot="1">
       <c r="A105" s="6" t="s">
-        <v>603</v>
+        <v>570</v>
       </c>
       <c r="B105" s="8">
-        <v>137</v>
+        <v>229</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="D105" s="8">
-        <v>137</v>
+        <v>229</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F105" s="9">
         <v>1</v>
       </c>
-      <c r="G105" s="5" t="s">
-        <v>603</v>
-      </c>
+      <c r="G105" s="5"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="6" t="s">
-        <v>604</v>
+        <v>572</v>
       </c>
       <c r="B106" s="8">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>605</v>
+        <v>362</v>
       </c>
       <c r="D106" s="8">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F106" s="9">
         <v>1</v>
       </c>
-      <c r="G106" s="5" t="s">
-        <v>604</v>
-      </c>
+      <c r="G106" s="5"/>
     </row>
     <row r="107" spans="1:7" ht="15.75" thickBot="1">
       <c r="A107" s="6" t="s">
-        <v>606</v>
+        <v>571</v>
       </c>
       <c r="B107" s="8">
-        <v>64</v>
+        <v>231</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>607</v>
+        <v>371</v>
       </c>
       <c r="D107" s="8">
-        <v>64</v>
+        <v>231</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F107" s="9">
         <v>1</v>
       </c>
-      <c r="G107" s="5" t="s">
-        <v>606</v>
-      </c>
+      <c r="G107" s="5"/>
     </row>
     <row r="108" spans="1:7" ht="15.75" thickBot="1">
       <c r="A108" s="6" t="s">
-        <v>608</v>
+        <v>574</v>
       </c>
       <c r="B108" s="8">
-        <v>81</v>
+        <v>232</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="D108" s="8">
-        <v>81</v>
+        <v>232</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F108" s="9">
         <v>1</v>
       </c>
-      <c r="G108" s="5" t="s">
-        <v>608</v>
-      </c>
+      <c r="G108" s="5"/>
     </row>
     <row r="109" spans="1:7" ht="15.75" thickBot="1">
       <c r="A109" s="6" t="s">
-        <v>609</v>
+        <v>575</v>
       </c>
       <c r="B109" s="8">
-        <v>127</v>
+        <v>233</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="D109" s="8">
-        <v>127</v>
+        <v>233</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="F109" s="9">
         <v>1</v>
@@ -18987,19 +19202,19 @@
     </row>
     <row r="110" spans="1:7" ht="15.75" thickBot="1">
       <c r="A110" s="6" t="s">
-        <v>610</v>
+        <v>573</v>
       </c>
       <c r="B110" s="8">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="D110" s="8">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="F110" s="9">
         <v>1</v>
@@ -19008,105 +19223,111 @@
     </row>
     <row r="111" spans="1:7" ht="15.75" thickBot="1">
       <c r="A111" s="6" t="s">
-        <v>611</v>
+        <v>416</v>
       </c>
       <c r="B111" s="8">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="D111" s="8">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F111" s="9">
         <v>1</v>
       </c>
-      <c r="G111" s="5"/>
+      <c r="G111" s="5" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="112" spans="1:7" ht="15.75" thickBot="1">
       <c r="A112" s="6" t="s">
-        <v>612</v>
+        <v>418</v>
       </c>
       <c r="B112" s="8">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>338</v>
+        <v>419</v>
       </c>
       <c r="D112" s="8">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F112" s="9">
         <v>1</v>
       </c>
-      <c r="G112" s="5"/>
+      <c r="G112" s="5" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="113" spans="1:7" ht="15.75" thickBot="1">
       <c r="A113" s="6" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="B113" s="8">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>614</v>
+        <v>368</v>
       </c>
       <c r="D113" s="8">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="E113" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F113" s="9">
+        <v>1</v>
+      </c>
+      <c r="G113" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="F113" s="9">
-        <v>1</v>
-      </c>
-      <c r="G113" s="5"/>
     </row>
     <row r="114" spans="1:7" ht="15.75" thickBot="1">
       <c r="A114" s="6" t="s">
-        <v>615</v>
+        <v>412</v>
       </c>
       <c r="B114" s="8">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>616</v>
+        <v>369</v>
       </c>
       <c r="D114" s="8">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F114" s="9">
         <v>1</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>615</v>
+        <v>412</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" thickBot="1">
       <c r="A115" s="6" t="s">
-        <v>617</v>
+        <v>447</v>
       </c>
       <c r="B115" s="8">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>618</v>
+        <v>448</v>
       </c>
       <c r="D115" s="8">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="F115" s="9">
         <v>1</v>
@@ -19115,619 +19336,1029 @@
     </row>
     <row r="116" spans="1:7" ht="15.75" thickBot="1">
       <c r="A116" s="6" t="s">
-        <v>619</v>
+        <v>445</v>
       </c>
       <c r="B116" s="8">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>347</v>
+        <v>446</v>
       </c>
       <c r="D116" s="8">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F116" s="9">
         <v>1</v>
       </c>
-      <c r="G116" s="5" t="s">
-        <v>620</v>
-      </c>
+      <c r="G116" s="5"/>
     </row>
     <row r="117" spans="1:7" ht="15.75" thickBot="1">
       <c r="A117" s="6" t="s">
-        <v>621</v>
+        <v>449</v>
       </c>
       <c r="B117" s="8">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>385</v>
+        <v>450</v>
       </c>
       <c r="D117" s="8">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F117" s="9">
         <v>1</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>622</v>
+        <v>451</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15.75" thickBot="1">
       <c r="A118" s="6" t="s">
-        <v>623</v>
+        <v>551</v>
       </c>
       <c r="B118" s="8">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>624</v>
+        <v>552</v>
       </c>
       <c r="D118" s="8">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F118" s="9">
         <v>1</v>
       </c>
-      <c r="G118" s="5" t="s">
-        <v>623</v>
-      </c>
+      <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7" ht="15.75" thickBot="1">
       <c r="A119" s="6" t="s">
-        <v>625</v>
+        <v>405</v>
       </c>
       <c r="B119" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>626</v>
+        <v>406</v>
       </c>
       <c r="D119" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F119" s="9">
         <v>1</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>625</v>
+        <v>407</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15.75" thickBot="1">
       <c r="A120" s="6" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="B120" s="8">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="D120" s="8">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F120" s="9">
         <v>1</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15.75" thickBot="1">
       <c r="A121" s="6" t="s">
-        <v>629</v>
+        <v>549</v>
       </c>
       <c r="B121" s="8">
-        <v>141</v>
+        <v>253</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>360</v>
+        <v>550</v>
       </c>
       <c r="D121" s="8">
-        <v>141</v>
+        <v>253</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F121" s="9">
         <v>1</v>
       </c>
-      <c r="G121" s="5" t="s">
-        <v>629</v>
-      </c>
+      <c r="G121" s="5"/>
     </row>
     <row r="122" spans="1:7" ht="15.75" thickBot="1">
       <c r="A122" s="6" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B122" s="8">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D122" s="8">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F122" s="9">
         <v>1</v>
       </c>
-      <c r="G122" s="5" t="s">
-        <v>630</v>
-      </c>
+      <c r="G122" s="5"/>
     </row>
     <row r="123" spans="1:7" ht="15.75" thickBot="1">
       <c r="A123" s="6" t="s">
-        <v>632</v>
+        <v>435</v>
       </c>
       <c r="B123" s="8">
-        <v>203</v>
+        <v>272</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>354</v>
+        <v>436</v>
       </c>
       <c r="D123" s="8">
-        <v>203</v>
+        <v>272</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F123" s="9">
         <v>1</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>632</v>
+        <v>435</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15.75" thickBot="1">
       <c r="A124" s="6" t="s">
-        <v>633</v>
+        <v>602</v>
       </c>
       <c r="B124" s="8">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>394</v>
+        <v>603</v>
       </c>
       <c r="D124" s="8">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F124" s="9">
         <v>1</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>633</v>
+        <v>602</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15.75" thickBot="1">
       <c r="A125" s="6" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="B125" s="8">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>351</v>
+        <v>615</v>
       </c>
       <c r="D125" s="8">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F125" s="9">
         <v>1</v>
       </c>
-      <c r="G125" s="5"/>
+      <c r="G125" s="5" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="126" spans="1:7" ht="15.75" thickBot="1">
       <c r="A126" s="6" t="s">
-        <v>635</v>
+        <v>511</v>
       </c>
       <c r="B126" s="8">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>383</v>
+        <v>512</v>
       </c>
       <c r="D126" s="8">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F126" s="9">
         <v>1</v>
       </c>
-      <c r="G126" s="5"/>
+      <c r="G126" s="5" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="127" spans="1:7" ht="15.75" thickBot="1">
       <c r="A127" s="6" t="s">
-        <v>636</v>
+        <v>610</v>
       </c>
       <c r="B127" s="8">
-        <v>15</v>
+        <v>277</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>343</v>
+        <v>611</v>
       </c>
       <c r="D127" s="8">
-        <v>15</v>
+        <v>277</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F127" s="9">
         <v>1</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15.75" thickBot="1">
       <c r="A128" s="6" t="s">
-        <v>638</v>
+        <v>542</v>
       </c>
       <c r="B128" s="8">
+        <v>278</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="D128" s="8">
+        <v>278</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F128" s="9">
+        <v>1</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="129" spans="1:136" ht="15.75" thickBot="1">
+      <c r="A129" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B129" s="8">
+        <v>279</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="D129" s="8">
+        <v>279</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F129" s="9">
+        <v>1</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="130" spans="1:136" ht="15.75" thickBot="1">
+      <c r="A130" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B130" s="8">
+        <v>280</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="D130" s="8">
+        <v>280</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F130" s="9">
+        <v>1</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="131" spans="1:136" ht="15.75" thickBot="1">
+      <c r="A131" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="B131" s="8">
+        <v>281</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="D131" s="8">
+        <v>281</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F131" s="9">
+        <v>1</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="132" spans="1:136" ht="15.75" thickBot="1">
+      <c r="A132" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B132" s="8">
+        <v>283</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="D132" s="8">
+        <v>283</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F132" s="9">
+        <v>1</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="133" spans="1:136" ht="15.75" thickBot="1">
+      <c r="A133" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="B133" s="8">
+        <v>284</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="D133" s="8">
+        <v>284</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F133" s="9">
+        <v>1</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="134" spans="1:136" ht="15.75" thickBot="1">
+      <c r="A134" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="B134" s="8">
+        <v>285</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="D134" s="8">
+        <v>285</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F134" s="9">
+        <v>1</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="135" spans="1:136" ht="15.75" thickBot="1">
+      <c r="A135" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="B135" s="8">
+        <v>286</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="D135" s="8">
+        <v>286</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F135" s="9">
+        <v>1</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="136" spans="1:136" ht="15.75" thickBot="1">
+      <c r="A136" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="B136" s="8">
+        <v>287</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="D136" s="8">
+        <v>287</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F136" s="9">
+        <v>1</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="141" spans="1:136">
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+      <c r="D141">
+        <v>6</v>
+      </c>
+      <c r="E141">
+        <v>15</v>
+      </c>
+      <c r="F141">
+        <v>17</v>
+      </c>
+      <c r="G141">
+        <v>19</v>
+      </c>
+      <c r="H141">
+        <v>22</v>
+      </c>
+      <c r="I141">
+        <v>23</v>
+      </c>
+      <c r="J141">
+        <v>24</v>
+      </c>
+      <c r="K141">
+        <v>26</v>
+      </c>
+      <c r="L141">
+        <v>30</v>
+      </c>
+      <c r="M141">
+        <v>34</v>
+      </c>
+      <c r="N141">
+        <v>36</v>
+      </c>
+      <c r="O141">
+        <v>38</v>
+      </c>
+      <c r="P141">
+        <v>40</v>
+      </c>
+      <c r="Q141">
+        <v>41</v>
+      </c>
+      <c r="R141">
+        <v>42</v>
+      </c>
+      <c r="S141">
+        <v>45</v>
+      </c>
+      <c r="T141">
+        <v>46</v>
+      </c>
+      <c r="U141">
+        <v>47</v>
+      </c>
+      <c r="V141">
+        <v>48</v>
+      </c>
+      <c r="W141">
+        <v>54</v>
+      </c>
+      <c r="X141">
+        <v>55</v>
+      </c>
+      <c r="Y141">
+        <v>56</v>
+      </c>
+      <c r="Z141">
+        <v>57</v>
+      </c>
+      <c r="AA141">
+        <v>61</v>
+      </c>
+      <c r="AB141">
+        <v>64</v>
+      </c>
+      <c r="AC141">
+        <v>78</v>
+      </c>
+      <c r="AD141">
+        <v>80</v>
+      </c>
+      <c r="AE141">
+        <v>81</v>
+      </c>
+      <c r="AF141">
+        <v>82</v>
+      </c>
+      <c r="AG141">
+        <v>83</v>
+      </c>
+      <c r="AH141">
+        <v>84</v>
+      </c>
+      <c r="AI141">
+        <v>86</v>
+      </c>
+      <c r="AJ141">
+        <v>88</v>
+      </c>
+      <c r="AK141">
+        <v>90</v>
+      </c>
+      <c r="AL141">
+        <v>91</v>
+      </c>
+      <c r="AM141">
+        <v>93</v>
+      </c>
+      <c r="AN141">
+        <v>97</v>
+      </c>
+      <c r="AO141">
+        <v>98</v>
+      </c>
+      <c r="AP141">
+        <v>101</v>
+      </c>
+      <c r="AQ141">
+        <v>103</v>
+      </c>
+      <c r="AR141">
+        <v>107</v>
+      </c>
+      <c r="AS141">
+        <v>109</v>
+      </c>
+      <c r="AT141">
+        <v>111</v>
+      </c>
+      <c r="AU141">
+        <v>113</v>
+      </c>
+      <c r="AV141">
+        <v>115</v>
+      </c>
+      <c r="AW141">
+        <v>117</v>
+      </c>
+      <c r="AX141">
+        <v>120</v>
+      </c>
+      <c r="AY141">
+        <v>121</v>
+      </c>
+      <c r="AZ141">
+        <v>122</v>
+      </c>
+      <c r="BA141">
+        <v>123</v>
+      </c>
+      <c r="BB141">
+        <v>124</v>
+      </c>
+      <c r="BC141">
+        <v>127</v>
+      </c>
+      <c r="BD141">
+        <v>128</v>
+      </c>
+      <c r="BE141">
+        <v>129</v>
+      </c>
+      <c r="BF141">
+        <v>130</v>
+      </c>
+      <c r="BG141">
+        <v>132</v>
+      </c>
+      <c r="BH141">
+        <v>137</v>
+      </c>
+      <c r="BI141">
+        <v>139</v>
+      </c>
+      <c r="BJ141">
+        <v>140</v>
+      </c>
+      <c r="BK141">
+        <v>141</v>
+      </c>
+      <c r="BL141">
+        <v>144</v>
+      </c>
+      <c r="BM141">
+        <v>145</v>
+      </c>
+      <c r="BN141">
+        <v>157</v>
+      </c>
+      <c r="BO141">
+        <v>160</v>
+      </c>
+      <c r="BP141">
+        <v>165</v>
+      </c>
+      <c r="BQ141">
+        <v>166</v>
+      </c>
+      <c r="BR141">
+        <v>167</v>
+      </c>
+      <c r="BS141">
+        <v>169</v>
+      </c>
+      <c r="BT141">
+        <v>170</v>
+      </c>
+      <c r="BU141">
+        <v>172</v>
+      </c>
+      <c r="BV141">
+        <v>174</v>
+      </c>
+      <c r="BW141">
+        <v>176</v>
+      </c>
+      <c r="BX141">
+        <v>178</v>
+      </c>
+      <c r="BY141">
+        <v>180</v>
+      </c>
+      <c r="BZ141">
+        <v>182</v>
+      </c>
+      <c r="CA141">
+        <v>183</v>
+      </c>
+      <c r="CB141">
+        <v>188</v>
+      </c>
+      <c r="CC141">
+        <v>189</v>
+      </c>
+      <c r="CD141">
+        <v>190</v>
+      </c>
+      <c r="CE141">
+        <v>191</v>
+      </c>
+      <c r="CF141">
+        <v>193</v>
+      </c>
+      <c r="CG141">
+        <v>198</v>
+      </c>
+      <c r="CH141">
+        <v>199</v>
+      </c>
+      <c r="CI141">
+        <v>200</v>
+      </c>
+      <c r="CJ141">
+        <v>201</v>
+      </c>
+      <c r="CK141">
+        <v>203</v>
+      </c>
+      <c r="CL141">
+        <v>208</v>
+      </c>
+      <c r="CM141">
+        <v>209</v>
+      </c>
+      <c r="CN141">
+        <v>213</v>
+      </c>
+      <c r="CO141">
+        <v>215</v>
+      </c>
+      <c r="CP141">
+        <v>216</v>
+      </c>
+      <c r="CQ141">
+        <v>217</v>
+      </c>
+      <c r="CR141">
+        <v>218</v>
+      </c>
+      <c r="CS141">
+        <v>219</v>
+      </c>
+      <c r="CT141">
+        <v>220</v>
+      </c>
+      <c r="CU141">
+        <v>221</v>
+      </c>
+      <c r="CV141">
+        <v>222</v>
+      </c>
+      <c r="CW141">
+        <v>223</v>
+      </c>
+      <c r="CX141">
+        <v>224</v>
+      </c>
+      <c r="CY141">
+        <v>226</v>
+      </c>
+      <c r="CZ141">
+        <v>228</v>
+      </c>
+      <c r="DA141">
+        <v>229</v>
+      </c>
+      <c r="DB141">
+        <v>230</v>
+      </c>
+      <c r="DC141">
+        <v>231</v>
+      </c>
+      <c r="DD141">
+        <v>232</v>
+      </c>
+      <c r="DE141">
+        <v>233</v>
+      </c>
+      <c r="DF141">
+        <v>234</v>
+      </c>
+      <c r="DG141">
+        <v>236</v>
+      </c>
+      <c r="DH141">
+        <v>237</v>
+      </c>
+      <c r="DI141">
+        <v>238</v>
+      </c>
+      <c r="DJ141">
+        <v>239</v>
+      </c>
+      <c r="DK141">
+        <v>241</v>
+      </c>
+      <c r="DL141">
+        <v>242</v>
+      </c>
+      <c r="DM141">
+        <v>243</v>
+      </c>
+      <c r="DN141">
+        <v>246</v>
+      </c>
+      <c r="DO141">
+        <v>248</v>
+      </c>
+      <c r="DP141">
+        <v>251</v>
+      </c>
+      <c r="DQ141">
+        <v>253</v>
+      </c>
+      <c r="DR141">
         <v>254</v>
       </c>
-      <c r="C128" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="D128" s="8">
-        <v>254</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="F128" s="9">
-        <v>1</v>
-      </c>
-      <c r="G128" s="5"/>
-    </row>
-    <row r="129" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A129" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="B129" s="8">
-        <v>82</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="D129" s="8">
-        <v>82</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="F129" s="9">
-        <v>1</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A130" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="B130" s="8">
+      <c r="DS141">
+        <v>272</v>
+      </c>
+      <c r="DT141">
+        <v>274</v>
+      </c>
+      <c r="DU141">
+        <v>275</v>
+      </c>
+      <c r="DV141">
+        <v>276</v>
+      </c>
+      <c r="DW141">
+        <v>277</v>
+      </c>
+      <c r="DX141">
+        <v>278</v>
+      </c>
+      <c r="DY141">
+        <v>279</v>
+      </c>
+      <c r="DZ141">
+        <v>280</v>
+      </c>
+      <c r="EA141">
+        <v>281</v>
+      </c>
+      <c r="EB141">
+        <v>283</v>
+      </c>
+      <c r="EC141">
+        <v>284</v>
+      </c>
+      <c r="ED141">
         <v>285</v>
       </c>
-      <c r="C130" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="D130" s="8">
-        <v>285</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="F130" s="9">
-        <v>1</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A131" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="B131" s="8">
+      <c r="EE141">
         <v>286</v>
       </c>
-      <c r="C131" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="D131" s="8">
-        <v>286</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="F131" s="9">
-        <v>1</v>
-      </c>
-      <c r="G131" s="5" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A132" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="B132" s="8">
-        <v>284</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="D132" s="8">
-        <v>284</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="F132" s="9">
-        <v>1</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A133" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="B133" s="8">
+      <c r="EF141">
         <v>287</v>
       </c>
-      <c r="C133" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="D133" s="8">
-        <v>287</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="F133" s="9">
-        <v>1</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A134" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="B134" s="8">
-        <v>281</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="D134" s="8">
-        <v>281</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="F134" s="9">
-        <v>1</v>
-      </c>
-      <c r="G134" s="5" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A135" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="B135" s="8">
-        <v>40</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="D135" s="8">
-        <v>40</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="F135" s="9">
-        <v>1</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A136" t="s">
-        <v>653</v>
-      </c>
-      <c r="B136" s="8">
-        <v>165</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="D136" s="8">
-        <v>165</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="F136" s="9">
-        <v>1</v>
-      </c>
-      <c r="G136" s="5"/>
     </row>
   </sheetData>
+  <sortState ref="A2:G136">
+    <sortCondition ref="B2:B136"/>
+  </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://api.paymentwall.com/admin/payment-systems?sort%5bfield%5d=ps_name&amp;sort%5border%5d=asc&amp;search%5Bps_active%5D=1" xr:uid="{BBDB6547-218E-4BD1-B683-54823101C3D3}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=91" xr:uid="{CE56DF5F-528B-4D38-9A13-76F99DB6BDD3}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=129" xr:uid="{059E9E68-FD4F-479E-9A84-9539B6E10AF1}"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=190" xr:uid="{5855BDA5-B8A5-40E1-A5A9-0A7D5B5EB117}"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=189" xr:uid="{AC716E4B-EF68-4930-ADA0-0274F0BA1382}"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=248" xr:uid="{79F1CDC7-B7AA-440D-933D-99209603150C}"/>
-    <hyperlink ref="A7" r:id="rId7" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=188" xr:uid="{1420838B-D8D6-4E77-AA60-BA783C327831}"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=182" xr:uid="{F8DE3187-0885-4E6F-BF55-DB53FBEA8723}"/>
-    <hyperlink ref="A9" r:id="rId9" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=239" xr:uid="{5F4BF082-9FD3-414A-ACA7-A8CE0A0CFA45}"/>
-    <hyperlink ref="A10" r:id="rId10" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=238" xr:uid="{157ABFD0-D123-4920-B582-1892EE4AEF96}"/>
-    <hyperlink ref="A11" r:id="rId11" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=193" xr:uid="{6770CE62-9433-484B-93FC-5AB081F39D83}"/>
-    <hyperlink ref="A12" r:id="rId12" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=236" xr:uid="{CBBDB9E3-3F7F-4FD9-AD35-AD9C4207821F}"/>
-    <hyperlink ref="A13" r:id="rId13" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=237" xr:uid="{7A556F41-2B00-4E65-9AC0-9E06AC05BF5C}"/>
-    <hyperlink ref="A14" r:id="rId14" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=198" xr:uid="{D7D525F0-543C-43CC-9C3C-014F1544FD0B}"/>
-    <hyperlink ref="A15" r:id="rId15" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=199" xr:uid="{8E620AC5-7ADF-4309-ABC5-A3458E3E7921}"/>
-    <hyperlink ref="A16" r:id="rId16" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=191" xr:uid="{A7818058-6931-4C92-96C0-3C74EC31F451}"/>
-    <hyperlink ref="A17" r:id="rId17" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=183" xr:uid="{F769FCDC-AC16-4B2D-92FE-CDB516218D36}"/>
-    <hyperlink ref="A18" r:id="rId18" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=61" xr:uid="{7C15B925-91E5-473B-8198-A8B0C51B745C}"/>
-    <hyperlink ref="A19" r:id="rId19" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=24" xr:uid="{49D1970C-95F3-4470-80FD-986BCA62EE5F}"/>
-    <hyperlink ref="A20" r:id="rId20" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=17" xr:uid="{B66D076E-7B08-4638-A436-37FA353AB406}"/>
-    <hyperlink ref="A21" r:id="rId21" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=167" xr:uid="{30E088B0-5EBB-4497-B6F5-9C1E13E47E97}"/>
-    <hyperlink ref="A22" r:id="rId22" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=272" xr:uid="{F184E891-84C7-49B5-BA33-21EDD65470CE}"/>
-    <hyperlink ref="A23" r:id="rId23" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=130" xr:uid="{0537AF2F-C564-4F80-A643-7F6E9B0538AE}"/>
-    <hyperlink ref="A24" r:id="rId24" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=160" xr:uid="{C9F71CD0-CB66-4A3B-80E6-3124EB667DB8}"/>
-    <hyperlink ref="A25" r:id="rId25" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=128" xr:uid="{0AF429C1-F912-4386-87E1-F5D5C520B41D}"/>
-    <hyperlink ref="A26" r:id="rId26" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=139" xr:uid="{0105F341-F234-4C9D-A3C7-83FEFBDE9C05}"/>
-    <hyperlink ref="A27" r:id="rId27" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=242" xr:uid="{474AD2FA-C8A3-43B4-9BA8-0C9EC168843D}"/>
-    <hyperlink ref="A28" r:id="rId28" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=241" xr:uid="{F6780259-7486-4DE2-9597-0A0EF1C9F365}"/>
-    <hyperlink ref="A29" r:id="rId29" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=243" xr:uid="{D07A0252-C827-4204-96C6-D36FBB67D6CE}"/>
-    <hyperlink ref="A30" r:id="rId30" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=88" xr:uid="{E685CFEF-9728-4D13-BDB0-160FDB244F53}"/>
-    <hyperlink ref="A31" r:id="rId31" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=120" xr:uid="{73D1A710-6624-4AB1-9A97-D61FFBF07BEE}"/>
-    <hyperlink ref="A32" r:id="rId32" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=122" xr:uid="{160A2365-E67F-41D2-81B6-8C6C0FA074BC}"/>
-    <hyperlink ref="A33" r:id="rId33" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=123" xr:uid="{E1FD6119-0A5F-41C2-BAA7-CC8170663A3A}"/>
-    <hyperlink ref="A34" r:id="rId34" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=117" xr:uid="{9EEACD67-33FE-4B69-A453-AC70A205B12B}"/>
-    <hyperlink ref="A35" r:id="rId35" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=121" xr:uid="{299FEE43-48B6-4A38-8684-792FEFB40663}"/>
-    <hyperlink ref="A36" r:id="rId36" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=124" xr:uid="{D6A8D02F-06DF-4CCD-8C48-1F484AC94406}"/>
-    <hyperlink ref="A37" r:id="rId37" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=55" xr:uid="{87C1E24F-65C4-43E4-8A6F-BD67D8FA83B9}"/>
-    <hyperlink ref="A38" r:id="rId38" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=101" xr:uid="{1AB90C05-F452-4EA0-88C9-5624291A739E}"/>
-    <hyperlink ref="A39" r:id="rId39" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=200" xr:uid="{F3D70283-A340-4494-ABF7-A6A2008368E8}"/>
-    <hyperlink ref="A40" r:id="rId40" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=201" xr:uid="{A1B2818D-791E-487D-B588-F3AFD8CF0426}"/>
-    <hyperlink ref="A41" r:id="rId41" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=224" xr:uid="{E933A78F-FBEB-4FDA-A1C4-5534787D7CC0}"/>
-    <hyperlink ref="A42" r:id="rId42" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=222" xr:uid="{99173645-9153-4A46-81D3-322F9BCB93D0}"/>
-    <hyperlink ref="A43" r:id="rId43" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=223" xr:uid="{1B87AE1F-5D5D-429E-BA50-BE7246B6D2B8}"/>
-    <hyperlink ref="A44" r:id="rId44" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=221" xr:uid="{9A7A4599-29AE-4FAF-93B5-86D17059EB1F}"/>
-    <hyperlink ref="A45" r:id="rId45" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=166" xr:uid="{0DF035FF-B5FD-49E4-B0C1-F2BCC71CB88F}"/>
-    <hyperlink ref="A46" r:id="rId46" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=46" xr:uid="{D3367530-CF6A-4BB4-9E5A-D5B38E970BB9}"/>
-    <hyperlink ref="A47" r:id="rId47" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=45" xr:uid="{DA027FCC-A9B4-41A8-AE85-FD20C42BDC87}"/>
-    <hyperlink ref="A48" r:id="rId48" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=157" xr:uid="{F68BB5F9-4966-4F5E-93CC-E9E76B10CA0A}"/>
-    <hyperlink ref="A49" r:id="rId49" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=132" xr:uid="{70D4B5DD-B20A-4262-8102-AA1350A3FF66}"/>
-    <hyperlink ref="A50" r:id="rId50" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=98" xr:uid="{C262AB5D-C22A-4F18-9049-824CF0B60D7F}"/>
-    <hyperlink ref="A51" r:id="rId51" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=34" xr:uid="{3782B140-CC61-4926-84D9-298CADBDA086}"/>
-    <hyperlink ref="A52" r:id="rId52" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=219" xr:uid="{700F880D-C2DE-430A-8AC4-A32C82E9494D}"/>
-    <hyperlink ref="A53" r:id="rId53" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=54" xr:uid="{F509AD70-98E7-4152-9B89-3F2F36DA68C1}"/>
-    <hyperlink ref="A54" r:id="rId54" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=57" xr:uid="{ADB1D4CD-1C31-47E0-ABF0-3A7EB395F5DB}"/>
-    <hyperlink ref="A55" r:id="rId55" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=283" xr:uid="{D2554AF0-6DEB-4921-B6C4-A4135EFF4DA6}"/>
-    <hyperlink ref="A56" r:id="rId56" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=48" xr:uid="{86CF1344-6A6F-4CFD-ACDA-293C3AA3401F}"/>
-    <hyperlink ref="A57" r:id="rId57" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=276" xr:uid="{4EABA04B-0EF6-48B6-9DAF-BB9FC2B59A80}"/>
-    <hyperlink ref="A58" r:id="rId58" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=145" xr:uid="{4D4F9427-676D-4170-9EA9-49BE7E7B6894}"/>
-    <hyperlink ref="A59" r:id="rId59" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=144" xr:uid="{E27005B5-85A8-4044-B2FD-216C643A2929}"/>
-    <hyperlink ref="A60" r:id="rId60" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=178" xr:uid="{74D9D047-3048-45A1-A80B-D0DD0F6C3433}"/>
-    <hyperlink ref="A61" r:id="rId61" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=220" xr:uid="{3E15AD35-BB63-4747-AA8E-8BC18E488F97}"/>
-    <hyperlink ref="A62" r:id="rId62" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=213" xr:uid="{EE067C76-CE28-4763-A04E-6AFA310E05AA}"/>
-    <hyperlink ref="A63" r:id="rId63" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=103" xr:uid="{DB42FD3C-F1AB-4D74-9B7A-95D46AD2BB03}"/>
-    <hyperlink ref="A64" r:id="rId64" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=215" xr:uid="{52A823AB-7956-430C-A166-E7651059FDBE}"/>
-    <hyperlink ref="A65" r:id="rId65" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=84" xr:uid="{E99B9AF2-6183-447F-AB3A-DB798F82803F}"/>
-    <hyperlink ref="A66" r:id="rId66" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=86" xr:uid="{665FB65D-007D-4B7B-8593-E7103A49F700}"/>
-    <hyperlink ref="A67" r:id="rId67" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=83" xr:uid="{DA9F0075-F65F-4183-922E-0ACF2762DFB5}"/>
-    <hyperlink ref="A68" r:id="rId68" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=47" xr:uid="{488B773D-772D-4275-BF29-FC7540E214F1}"/>
-    <hyperlink ref="A69" r:id="rId69" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=170" xr:uid="{C85D0D10-CD60-42EE-890B-E305F6921FB2}"/>
-    <hyperlink ref="A70" r:id="rId70" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=280" xr:uid="{7E9E92FB-3E5C-403D-BBEC-48B7ABBD00CF}"/>
-    <hyperlink ref="A71" r:id="rId71" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=208" xr:uid="{26DA32F2-562B-4A7A-BEDA-21587CB6C1CF}"/>
-    <hyperlink ref="A72" r:id="rId72" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=209" xr:uid="{A1A8DB38-659D-4A14-8378-578764BF60E5}"/>
-    <hyperlink ref="A73" r:id="rId73" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=279" xr:uid="{CED0BB89-B77E-4509-BCB2-84119C03F6A9}"/>
-    <hyperlink ref="A74" r:id="rId74" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=278" xr:uid="{A681896B-7217-4D26-8D5D-1ED0F93FD065}"/>
-    <hyperlink ref="A75" r:id="rId75" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=93" xr:uid="{59723E4E-8097-4CBE-BD1E-79258FF0CACB}"/>
-    <hyperlink ref="A76" r:id="rId76" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=19" xr:uid="{92EBCDF2-A8EF-4343-B94F-7DACFED66C79}"/>
-    <hyperlink ref="A77" r:id="rId77" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=56" xr:uid="{E83AF057-760C-4AA1-9DFB-083E0B4271F6}"/>
-    <hyperlink ref="A78" r:id="rId78" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=253" xr:uid="{7960163A-B9B5-4531-A6F6-D68669555C15}"/>
-    <hyperlink ref="A79" r:id="rId79" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=246" xr:uid="{CFFC8A57-05EA-4294-B137-3EC0CCAD09D1}"/>
-    <hyperlink ref="A80" r:id="rId80" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=80" xr:uid="{16FEFE82-F215-44F9-A992-C4B32F6EA49E}"/>
-    <hyperlink ref="A81" r:id="rId81" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=36" xr:uid="{C76186FB-1072-4922-A349-B50F8425E6E9}"/>
-    <hyperlink ref="A82" r:id="rId82" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=23" xr:uid="{66330CA6-0C84-440D-B528-7992BC192551}"/>
-    <hyperlink ref="A83" r:id="rId83" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=78" xr:uid="{F9E57ACB-DED5-4A1E-8A46-F16EEF53BB79}"/>
-    <hyperlink ref="A84" r:id="rId84" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=42" xr:uid="{6BA467CB-2F35-45C8-9DFD-B848169520E9}"/>
-    <hyperlink ref="A85" r:id="rId85" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=41" xr:uid="{FE75F147-F8DB-45D7-B6B5-DFBE5D817216}"/>
-    <hyperlink ref="A86" r:id="rId86" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=1" xr:uid="{62EE50A7-0698-4FD1-91CF-C00423A4BB9F}"/>
-    <hyperlink ref="A87" r:id="rId87" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=30" xr:uid="{16A1ADDD-E487-41E1-8A84-E437DA50BA5C}"/>
-    <hyperlink ref="A88" r:id="rId88" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=228" xr:uid="{C23DF4C5-BDB6-4D53-80CD-9CAE14CB1EC6}"/>
-    <hyperlink ref="A89" r:id="rId89" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=229" xr:uid="{AD9027CD-FF99-4319-AE6B-FEF2D9051F6F}"/>
-    <hyperlink ref="A90" r:id="rId90" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=231" xr:uid="{063A42FF-62C1-447F-BDFB-30AE5921A687}"/>
-    <hyperlink ref="A91" r:id="rId91" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=230" xr:uid="{8D91706A-FAEB-4246-8015-9F90CD1C7F33}"/>
-    <hyperlink ref="A92" r:id="rId92" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=234" xr:uid="{18E3E641-EBCC-4222-A435-3D86723CFE18}"/>
-    <hyperlink ref="A93" r:id="rId93" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=232" xr:uid="{AEA21885-5548-4AA7-958B-66DCBED6F410}"/>
-    <hyperlink ref="A94" r:id="rId94" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=233" xr:uid="{07E9BABE-0992-40D4-A17A-1FFEDC339A0D}"/>
-    <hyperlink ref="A95" r:id="rId95" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=109" xr:uid="{3C94791E-F867-48B2-A31B-804480EE7E04}"/>
-    <hyperlink ref="A96" r:id="rId96" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=107" xr:uid="{D4AA68B4-DECD-49FC-A41D-DAD84B114B72}"/>
-    <hyperlink ref="A97" r:id="rId97" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=115" xr:uid="{84AD61A8-EB6D-4633-AB65-EE21D2486F2F}"/>
-    <hyperlink ref="A98" r:id="rId98" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=90" xr:uid="{872340A6-5A3A-4429-B456-CC42114710E9}"/>
-    <hyperlink ref="A99" r:id="rId99" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=111" xr:uid="{8E6B058A-0EAE-4E30-9C2D-839C5094B6C4}"/>
-    <hyperlink ref="A100" r:id="rId100" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=113" xr:uid="{A1E00B61-542D-4904-A473-89A6DE082FE8}"/>
-    <hyperlink ref="A101" r:id="rId101" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=218" xr:uid="{8A0AC063-BB22-43AF-BFF8-5D26033C21AA}"/>
-    <hyperlink ref="A102" r:id="rId102" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=6" xr:uid="{6640293A-EA6B-41D7-BEE4-DE05BB6AE82B}"/>
+    <hyperlink ref="A38" r:id="rId2" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=91" xr:uid="{CE56DF5F-528B-4D38-9A13-76F99DB6BDD3}"/>
+    <hyperlink ref="A57" r:id="rId3" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=129" xr:uid="{059E9E68-FD4F-479E-9A84-9539B6E10AF1}"/>
+    <hyperlink ref="A82" r:id="rId4" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=190" xr:uid="{5855BDA5-B8A5-40E1-A5A9-0A7D5B5EB117}"/>
+    <hyperlink ref="A81" r:id="rId5" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=189" xr:uid="{AC716E4B-EF68-4930-ADA0-0274F0BA1382}"/>
+    <hyperlink ref="A119" r:id="rId6" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=248" xr:uid="{79F1CDC7-B7AA-440D-933D-99209603150C}"/>
+    <hyperlink ref="A80" r:id="rId7" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=188" xr:uid="{1420838B-D8D6-4E77-AA60-BA783C327831}"/>
+    <hyperlink ref="A78" r:id="rId8" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=182" xr:uid="{F8DE3187-0885-4E6F-BF55-DB53FBEA8723}"/>
+    <hyperlink ref="A114" r:id="rId9" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=239" xr:uid="{5F4BF082-9FD3-414A-ACA7-A8CE0A0CFA45}"/>
+    <hyperlink ref="A113" r:id="rId10" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=238" xr:uid="{157ABFD0-D123-4920-B582-1892EE4AEF96}"/>
+    <hyperlink ref="A84" r:id="rId11" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=193" xr:uid="{6770CE62-9433-484B-93FC-5AB081F39D83}"/>
+    <hyperlink ref="A111" r:id="rId12" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=236" xr:uid="{CBBDB9E3-3F7F-4FD9-AD35-AD9C4207821F}"/>
+    <hyperlink ref="A112" r:id="rId13" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=237" xr:uid="{7A556F41-2B00-4E65-9AC0-9E06AC05BF5C}"/>
+    <hyperlink ref="A85" r:id="rId14" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=198" xr:uid="{D7D525F0-543C-43CC-9C3C-014F1544FD0B}"/>
+    <hyperlink ref="A86" r:id="rId15" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=199" xr:uid="{8E620AC5-7ADF-4309-ABC5-A3458E3E7921}"/>
+    <hyperlink ref="A83" r:id="rId16" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=191" xr:uid="{A7818058-6931-4C92-96C0-3C74EC31F451}"/>
+    <hyperlink ref="A79" r:id="rId17" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=183" xr:uid="{F769FCDC-AC16-4B2D-92FE-CDB516218D36}"/>
+    <hyperlink ref="A27" r:id="rId18" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=61" xr:uid="{7C15B925-91E5-473B-8198-A8B0C51B745C}"/>
+    <hyperlink ref="A10" r:id="rId19" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=24" xr:uid="{49D1970C-95F3-4470-80FD-986BCA62EE5F}"/>
+    <hyperlink ref="A6" r:id="rId20" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=17" xr:uid="{B66D076E-7B08-4638-A436-37FA353AB406}"/>
+    <hyperlink ref="A70" r:id="rId21" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=167" xr:uid="{30E088B0-5EBB-4497-B6F5-9C1E13E47E97}"/>
+    <hyperlink ref="A123" r:id="rId22" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=272" xr:uid="{F184E891-84C7-49B5-BA33-21EDD65470CE}"/>
+    <hyperlink ref="A58" r:id="rId23" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=130" xr:uid="{0537AF2F-C564-4F80-A643-7F6E9B0538AE}"/>
+    <hyperlink ref="A67" r:id="rId24" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=160" xr:uid="{C9F71CD0-CB66-4A3B-80E6-3124EB667DB8}"/>
+    <hyperlink ref="A56" r:id="rId25" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=128" xr:uid="{0AF429C1-F912-4386-87E1-F5D5C520B41D}"/>
+    <hyperlink ref="A61" r:id="rId26" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=139" xr:uid="{0105F341-F234-4C9D-A3C7-83FEFBDE9C05}"/>
+    <hyperlink ref="A116" r:id="rId27" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=242" xr:uid="{474AD2FA-C8A3-43B4-9BA8-0C9EC168843D}"/>
+    <hyperlink ref="A115" r:id="rId28" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=241" xr:uid="{F6780259-7486-4DE2-9597-0A0EF1C9F365}"/>
+    <hyperlink ref="A117" r:id="rId29" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=243" xr:uid="{D07A0252-C827-4204-96C6-D36FBB67D6CE}"/>
+    <hyperlink ref="A36" r:id="rId30" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=88" xr:uid="{E685CFEF-9728-4D13-BDB0-160FDB244F53}"/>
+    <hyperlink ref="A50" r:id="rId31" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=120" xr:uid="{73D1A710-6624-4AB1-9A97-D61FFBF07BEE}"/>
+    <hyperlink ref="A52" r:id="rId32" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=122" xr:uid="{160A2365-E67F-41D2-81B6-8C6C0FA074BC}"/>
+    <hyperlink ref="A53" r:id="rId33" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=123" xr:uid="{E1FD6119-0A5F-41C2-BAA7-CC8170663A3A}"/>
+    <hyperlink ref="A49" r:id="rId34" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=117" xr:uid="{9EEACD67-33FE-4B69-A453-AC70A205B12B}"/>
+    <hyperlink ref="A51" r:id="rId35" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=121" xr:uid="{299FEE43-48B6-4A38-8684-792FEFB40663}"/>
+    <hyperlink ref="A54" r:id="rId36" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=124" xr:uid="{D6A8D02F-06DF-4CCD-8C48-1F484AC94406}"/>
+    <hyperlink ref="A24" r:id="rId37" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=55" xr:uid="{87C1E24F-65C4-43E4-8A6F-BD67D8FA83B9}"/>
+    <hyperlink ref="A42" r:id="rId38" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=101" xr:uid="{1AB90C05-F452-4EA0-88C9-5624291A739E}"/>
+    <hyperlink ref="A87" r:id="rId39" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=200" xr:uid="{F3D70283-A340-4494-ABF7-A6A2008368E8}"/>
+    <hyperlink ref="A88" r:id="rId40" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=201" xr:uid="{A1B2818D-791E-487D-B588-F3AFD8CF0426}"/>
+    <hyperlink ref="A102" r:id="rId41" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=224" xr:uid="{E933A78F-FBEB-4FDA-A1C4-5534787D7CC0}"/>
+    <hyperlink ref="A100" r:id="rId42" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=222" xr:uid="{99173645-9153-4A46-81D3-322F9BCB93D0}"/>
+    <hyperlink ref="A101" r:id="rId43" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=223" xr:uid="{1B87AE1F-5D5D-429E-BA50-BE7246B6D2B8}"/>
+    <hyperlink ref="A99" r:id="rId44" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=221" xr:uid="{9A7A4599-29AE-4FAF-93B5-86D17059EB1F}"/>
+    <hyperlink ref="A69" r:id="rId45" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=166" xr:uid="{0DF035FF-B5FD-49E4-B0C1-F2BCC71CB88F}"/>
+    <hyperlink ref="A20" r:id="rId46" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=46" xr:uid="{D3367530-CF6A-4BB4-9E5A-D5B38E970BB9}"/>
+    <hyperlink ref="A19" r:id="rId47" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=45" xr:uid="{DA027FCC-A9B4-41A8-AE85-FD20C42BDC87}"/>
+    <hyperlink ref="A66" r:id="rId48" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=157" xr:uid="{F68BB5F9-4966-4F5E-93CC-E9E76B10CA0A}"/>
+    <hyperlink ref="A59" r:id="rId49" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=132" xr:uid="{70D4B5DD-B20A-4262-8102-AA1350A3FF66}"/>
+    <hyperlink ref="A41" r:id="rId50" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=98" xr:uid="{C262AB5D-C22A-4F18-9049-824CF0B60D7F}"/>
+    <hyperlink ref="A13" r:id="rId51" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=34" xr:uid="{3782B140-CC61-4926-84D9-298CADBDA086}"/>
+    <hyperlink ref="A97" r:id="rId52" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=219" xr:uid="{700F880D-C2DE-430A-8AC4-A32C82E9494D}"/>
+    <hyperlink ref="A23" r:id="rId53" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=54" xr:uid="{F509AD70-98E7-4152-9B89-3F2F36DA68C1}"/>
+    <hyperlink ref="A26" r:id="rId54" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=57" xr:uid="{ADB1D4CD-1C31-47E0-ABF0-3A7EB395F5DB}"/>
+    <hyperlink ref="A132" r:id="rId55" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=283" xr:uid="{D2554AF0-6DEB-4921-B6C4-A4135EFF4DA6}"/>
+    <hyperlink ref="A22" r:id="rId56" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=48" xr:uid="{86CF1344-6A6F-4CFD-ACDA-293C3AA3401F}"/>
+    <hyperlink ref="A126" r:id="rId57" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=276" xr:uid="{4EABA04B-0EF6-48B6-9DAF-BB9FC2B59A80}"/>
+    <hyperlink ref="A65" r:id="rId58" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=145" xr:uid="{4D4F9427-676D-4170-9EA9-49BE7E7B6894}"/>
+    <hyperlink ref="A64" r:id="rId59" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=144" xr:uid="{E27005B5-85A8-4044-B2FD-216C643A2929}"/>
+    <hyperlink ref="A76" r:id="rId60" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=178" xr:uid="{74D9D047-3048-45A1-A80B-D0DD0F6C3433}"/>
+    <hyperlink ref="A98" r:id="rId61" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=220" xr:uid="{3E15AD35-BB63-4747-AA8E-8BC18E488F97}"/>
+    <hyperlink ref="A92" r:id="rId62" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=213" xr:uid="{EE067C76-CE28-4763-A04E-6AFA310E05AA}"/>
+    <hyperlink ref="A43" r:id="rId63" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=103" xr:uid="{DB42FD3C-F1AB-4D74-9B7A-95D46AD2BB03}"/>
+    <hyperlink ref="A93" r:id="rId64" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=215" xr:uid="{52A823AB-7956-430C-A166-E7651059FDBE}"/>
+    <hyperlink ref="A34" r:id="rId65" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=84" xr:uid="{E99B9AF2-6183-447F-AB3A-DB798F82803F}"/>
+    <hyperlink ref="A35" r:id="rId66" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=86" xr:uid="{665FB65D-007D-4B7B-8593-E7103A49F700}"/>
+    <hyperlink ref="A33" r:id="rId67" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=83" xr:uid="{DA9F0075-F65F-4183-922E-0ACF2762DFB5}"/>
+    <hyperlink ref="A21" r:id="rId68" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=47" xr:uid="{488B773D-772D-4275-BF29-FC7540E214F1}"/>
+    <hyperlink ref="A72" r:id="rId69" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=170" xr:uid="{C85D0D10-CD60-42EE-890B-E305F6921FB2}"/>
+    <hyperlink ref="A130" r:id="rId70" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=280" xr:uid="{7E9E92FB-3E5C-403D-BBEC-48B7ABBD00CF}"/>
+    <hyperlink ref="A90" r:id="rId71" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=208" xr:uid="{26DA32F2-562B-4A7A-BEDA-21587CB6C1CF}"/>
+    <hyperlink ref="A91" r:id="rId72" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=209" xr:uid="{A1A8DB38-659D-4A14-8378-578764BF60E5}"/>
+    <hyperlink ref="A129" r:id="rId73" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=279" xr:uid="{CED0BB89-B77E-4509-BCB2-84119C03F6A9}"/>
+    <hyperlink ref="A128" r:id="rId74" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=278" xr:uid="{A681896B-7217-4D26-8D5D-1ED0F93FD065}"/>
+    <hyperlink ref="A39" r:id="rId75" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=93" xr:uid="{59723E4E-8097-4CBE-BD1E-79258FF0CACB}"/>
+    <hyperlink ref="A7" r:id="rId76" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=19" xr:uid="{92EBCDF2-A8EF-4343-B94F-7DACFED66C79}"/>
+    <hyperlink ref="A25" r:id="rId77" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=56" xr:uid="{E83AF057-760C-4AA1-9DFB-083E0B4271F6}"/>
+    <hyperlink ref="A121" r:id="rId78" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=253" xr:uid="{7960163A-B9B5-4531-A6F6-D68669555C15}"/>
+    <hyperlink ref="A118" r:id="rId79" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=246" xr:uid="{CFFC8A57-05EA-4294-B137-3EC0CCAD09D1}"/>
+    <hyperlink ref="A30" r:id="rId80" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=80" xr:uid="{16FEFE82-F215-44F9-A992-C4B32F6EA49E}"/>
+    <hyperlink ref="A14" r:id="rId81" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=36" xr:uid="{C76186FB-1072-4922-A349-B50F8425E6E9}"/>
+    <hyperlink ref="A9" r:id="rId82" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=23" xr:uid="{66330CA6-0C84-440D-B528-7992BC192551}"/>
+    <hyperlink ref="A29" r:id="rId83" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=78" xr:uid="{F9E57ACB-DED5-4A1E-8A46-F16EEF53BB79}"/>
+    <hyperlink ref="A18" r:id="rId84" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=42" xr:uid="{6BA467CB-2F35-45C8-9DFD-B848169520E9}"/>
+    <hyperlink ref="A17" r:id="rId85" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=41" xr:uid="{FE75F147-F8DB-45D7-B6B5-DFBE5D817216}"/>
+    <hyperlink ref="A2" r:id="rId86" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=1" xr:uid="{62EE50A7-0698-4FD1-91CF-C00423A4BB9F}"/>
+    <hyperlink ref="A12" r:id="rId87" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=30" xr:uid="{16A1ADDD-E487-41E1-8A84-E437DA50BA5C}"/>
+    <hyperlink ref="A104" r:id="rId88" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=228" xr:uid="{C23DF4C5-BDB6-4D53-80CD-9CAE14CB1EC6}"/>
+    <hyperlink ref="A105" r:id="rId89" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=229" xr:uid="{AD9027CD-FF99-4319-AE6B-FEF2D9051F6F}"/>
+    <hyperlink ref="A107" r:id="rId90" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=231" xr:uid="{063A42FF-62C1-447F-BDFB-30AE5921A687}"/>
+    <hyperlink ref="A106" r:id="rId91" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=230" xr:uid="{8D91706A-FAEB-4246-8015-9F90CD1C7F33}"/>
+    <hyperlink ref="A110" r:id="rId92" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=234" xr:uid="{18E3E641-EBCC-4222-A435-3D86723CFE18}"/>
+    <hyperlink ref="A108" r:id="rId93" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=232" xr:uid="{AEA21885-5548-4AA7-958B-66DCBED6F410}"/>
+    <hyperlink ref="A109" r:id="rId94" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=233" xr:uid="{07E9BABE-0992-40D4-A17A-1FFEDC339A0D}"/>
+    <hyperlink ref="A45" r:id="rId95" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=109" xr:uid="{3C94791E-F867-48B2-A31B-804480EE7E04}"/>
+    <hyperlink ref="A44" r:id="rId96" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=107" xr:uid="{D4AA68B4-DECD-49FC-A41D-DAD84B114B72}"/>
+    <hyperlink ref="A48" r:id="rId97" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=115" xr:uid="{84AD61A8-EB6D-4633-AB65-EE21D2486F2F}"/>
+    <hyperlink ref="A37" r:id="rId98" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=90" xr:uid="{872340A6-5A3A-4429-B456-CC42114710E9}"/>
+    <hyperlink ref="A46" r:id="rId99" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=111" xr:uid="{8E6B058A-0EAE-4E30-9C2D-839C5094B6C4}"/>
+    <hyperlink ref="A47" r:id="rId100" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=113" xr:uid="{A1E00B61-542D-4904-A473-89A6DE082FE8}"/>
+    <hyperlink ref="A96" r:id="rId101" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=218" xr:uid="{8A0AC063-BB22-43AF-BFF8-5D26033C21AA}"/>
+    <hyperlink ref="A4" r:id="rId102" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=6" xr:uid="{6640293A-EA6B-41D7-BEE4-DE05BB6AE82B}"/>
     <hyperlink ref="A103" r:id="rId103" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=226" xr:uid="{002A0DE3-05F1-451F-939F-3673208CC74D}"/>
-    <hyperlink ref="A104" r:id="rId104" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=5" xr:uid="{F8A38BCD-E701-4B42-91D9-82E1877F9C97}"/>
-    <hyperlink ref="A105" r:id="rId105" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=137" xr:uid="{9C649B5C-E1DF-4C06-B489-E46B4091DF0E}"/>
-    <hyperlink ref="A106" r:id="rId106" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=176" xr:uid="{448B44EB-8BB0-4E03-8B4C-412FC430DCA9}"/>
-    <hyperlink ref="A107" r:id="rId107" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=64" xr:uid="{25A10968-4972-48F6-9519-38752D50A410}"/>
-    <hyperlink ref="A108" r:id="rId108" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=81" xr:uid="{E5BB121C-00DD-45A7-8633-FC8FA43D223A}"/>
-    <hyperlink ref="A109" r:id="rId109" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=127" xr:uid="{0825ABD2-9F4F-42FF-BAAC-FCAE2561FC7E}"/>
-    <hyperlink ref="A110" r:id="rId110" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=216" xr:uid="{847888E9-7A2E-473F-88EE-40154EC70070}"/>
-    <hyperlink ref="A111" r:id="rId111" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=217" xr:uid="{BEA51649-E921-4F14-A914-F4E6BBBAE474}"/>
-    <hyperlink ref="A112" r:id="rId112" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=172" xr:uid="{4A96FE9A-959D-44FD-852E-4664C201C97A}"/>
-    <hyperlink ref="A113" r:id="rId113" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=174" xr:uid="{04237423-3046-45E0-82A8-E8A5CB8488FE}"/>
-    <hyperlink ref="A114" r:id="rId114" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=274" xr:uid="{073B9AC8-6C63-4313-82BF-A6C3C718B15F}"/>
-    <hyperlink ref="A115" r:id="rId115" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=140" xr:uid="{BBB181C3-59F0-469C-ABFB-35B4BE130E5C}"/>
-    <hyperlink ref="A116" r:id="rId116" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=97" xr:uid="{A24C8A82-F218-4182-90CF-937C2451FA17}"/>
-    <hyperlink ref="A117" r:id="rId117" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=26" xr:uid="{6697631A-35A8-415D-B516-5638C4381203}"/>
-    <hyperlink ref="A118" r:id="rId118" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=277" xr:uid="{B9418B82-59AE-42DB-974B-FF194F2723D9}"/>
-    <hyperlink ref="A119" r:id="rId119" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=251" xr:uid="{6A5DCCEF-FDB4-4289-85D0-56B9C498D1E1}"/>
-    <hyperlink ref="A120" r:id="rId120" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=275" xr:uid="{71DD4AA1-E6FE-474E-95B2-03978FF00611}"/>
-    <hyperlink ref="A121" r:id="rId121" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=141" xr:uid="{37FD7E31-6EFC-4D64-B0D1-D4AE0FD87DEC}"/>
-    <hyperlink ref="A122" r:id="rId122" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=180" xr:uid="{F4FD26E9-82EF-490C-9968-086B2064ABCC}"/>
-    <hyperlink ref="A123" r:id="rId123" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=203" xr:uid="{2F3A079E-4F0D-42C6-82B2-0391ED879928}"/>
-    <hyperlink ref="A124" r:id="rId124" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=169" xr:uid="{8B0CBFB6-CFDF-4708-AE7F-D62FFF14DD3D}"/>
-    <hyperlink ref="A125" r:id="rId125" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=38" xr:uid="{C1AE9794-9D4B-4C8C-B72B-09E9F198EE28}"/>
-    <hyperlink ref="A126" r:id="rId126" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=22" xr:uid="{E4D03930-B66E-4ED2-A807-03074ED1CCAE}"/>
-    <hyperlink ref="A127" r:id="rId127" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=15" xr:uid="{E9247EE7-CBF1-4E52-B68C-604457FAD3B7}"/>
-    <hyperlink ref="A128" r:id="rId128" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=254" xr:uid="{28E774D3-5B5C-4D9E-8651-AC4EAE5C4F4B}"/>
-    <hyperlink ref="A129" r:id="rId129" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=82" xr:uid="{D70903C3-064D-4D8E-AF5B-BB01BF42ABDB}"/>
-    <hyperlink ref="A130" r:id="rId130" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=285" xr:uid="{EC7F7F13-421D-4A9A-A6B3-C36AB78F115C}"/>
-    <hyperlink ref="A131" r:id="rId131" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=286" xr:uid="{1D481D2A-A607-4BC1-B4F5-4F4617F7D2D3}"/>
-    <hyperlink ref="A132" r:id="rId132" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=284" xr:uid="{7AA56830-F8C0-469B-9459-DE205ACC7D0C}"/>
-    <hyperlink ref="A133" r:id="rId133" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=287" xr:uid="{2771D6B0-9288-47FB-80F9-F926C056ACDF}"/>
-    <hyperlink ref="A134" r:id="rId134" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=281" xr:uid="{C6E02E31-1B00-4011-8196-8FCB7E06BB32}"/>
-    <hyperlink ref="A135" r:id="rId135" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=40" xr:uid="{3F06D940-E28C-4FC6-A510-594A56F7323E}"/>
+    <hyperlink ref="A3" r:id="rId104" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=5" xr:uid="{F8A38BCD-E701-4B42-91D9-82E1877F9C97}"/>
+    <hyperlink ref="A60" r:id="rId105" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=137" xr:uid="{9C649B5C-E1DF-4C06-B489-E46B4091DF0E}"/>
+    <hyperlink ref="A75" r:id="rId106" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=176" xr:uid="{448B44EB-8BB0-4E03-8B4C-412FC430DCA9}"/>
+    <hyperlink ref="A28" r:id="rId107" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=64" xr:uid="{25A10968-4972-48F6-9519-38752D50A410}"/>
+    <hyperlink ref="A31" r:id="rId108" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=81" xr:uid="{E5BB121C-00DD-45A7-8633-FC8FA43D223A}"/>
+    <hyperlink ref="A55" r:id="rId109" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=127" xr:uid="{0825ABD2-9F4F-42FF-BAAC-FCAE2561FC7E}"/>
+    <hyperlink ref="A94" r:id="rId110" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=216" xr:uid="{847888E9-7A2E-473F-88EE-40154EC70070}"/>
+    <hyperlink ref="A95" r:id="rId111" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=217" xr:uid="{BEA51649-E921-4F14-A914-F4E6BBBAE474}"/>
+    <hyperlink ref="A73" r:id="rId112" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=172" xr:uid="{4A96FE9A-959D-44FD-852E-4664C201C97A}"/>
+    <hyperlink ref="A74" r:id="rId113" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=174" xr:uid="{04237423-3046-45E0-82A8-E8A5CB8488FE}"/>
+    <hyperlink ref="A124" r:id="rId114" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=274" xr:uid="{073B9AC8-6C63-4313-82BF-A6C3C718B15F}"/>
+    <hyperlink ref="A62" r:id="rId115" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=140" xr:uid="{BBB181C3-59F0-469C-ABFB-35B4BE130E5C}"/>
+    <hyperlink ref="A40" r:id="rId116" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=97" xr:uid="{A24C8A82-F218-4182-90CF-937C2451FA17}"/>
+    <hyperlink ref="A11" r:id="rId117" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=26" xr:uid="{6697631A-35A8-415D-B516-5638C4381203}"/>
+    <hyperlink ref="A127" r:id="rId118" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=277" xr:uid="{B9418B82-59AE-42DB-974B-FF194F2723D9}"/>
+    <hyperlink ref="A120" r:id="rId119" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=251" xr:uid="{6A5DCCEF-FDB4-4289-85D0-56B9C498D1E1}"/>
+    <hyperlink ref="A125" r:id="rId120" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=275" xr:uid="{71DD4AA1-E6FE-474E-95B2-03978FF00611}"/>
+    <hyperlink ref="A63" r:id="rId121" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=141" xr:uid="{37FD7E31-6EFC-4D64-B0D1-D4AE0FD87DEC}"/>
+    <hyperlink ref="A77" r:id="rId122" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=180" xr:uid="{F4FD26E9-82EF-490C-9968-086B2064ABCC}"/>
+    <hyperlink ref="A89" r:id="rId123" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=203" xr:uid="{2F3A079E-4F0D-42C6-82B2-0391ED879928}"/>
+    <hyperlink ref="A71" r:id="rId124" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=169" xr:uid="{8B0CBFB6-CFDF-4708-AE7F-D62FFF14DD3D}"/>
+    <hyperlink ref="A15" r:id="rId125" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=38" xr:uid="{C1AE9794-9D4B-4C8C-B72B-09E9F198EE28}"/>
+    <hyperlink ref="A8" r:id="rId126" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=22" xr:uid="{E4D03930-B66E-4ED2-A807-03074ED1CCAE}"/>
+    <hyperlink ref="A5" r:id="rId127" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=15" xr:uid="{E9247EE7-CBF1-4E52-B68C-604457FAD3B7}"/>
+    <hyperlink ref="A122" r:id="rId128" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=254" xr:uid="{28E774D3-5B5C-4D9E-8651-AC4EAE5C4F4B}"/>
+    <hyperlink ref="A32" r:id="rId129" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=82" xr:uid="{D70903C3-064D-4D8E-AF5B-BB01BF42ABDB}"/>
+    <hyperlink ref="A134" r:id="rId130" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=285" xr:uid="{EC7F7F13-421D-4A9A-A6B3-C36AB78F115C}"/>
+    <hyperlink ref="A135" r:id="rId131" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=286" xr:uid="{1D481D2A-A607-4BC1-B4F5-4F4617F7D2D3}"/>
+    <hyperlink ref="A133" r:id="rId132" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=284" xr:uid="{7AA56830-F8C0-469B-9459-DE205ACC7D0C}"/>
+    <hyperlink ref="A136" r:id="rId133" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=287" xr:uid="{2771D6B0-9288-47FB-80F9-F926C056ACDF}"/>
+    <hyperlink ref="A131" r:id="rId134" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=281" xr:uid="{C6E02E31-1B00-4011-8196-8FCB7E06BB32}"/>
+    <hyperlink ref="A16" r:id="rId135" display="https://api.paymentwall.com/admin/payment-system-profile?search%5bps_id%5d=40" xr:uid="{3F06D940-E28C-4FC6-A510-594A56F7323E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
